--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -11183,26 +11183,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>人民币</t>
+    <t>提取直充10元电话卡</t>
+  </si>
+  <si>
+    <t>提取直充30元电话卡</t>
+  </si>
+  <si>
+    <t>实物50元京东卡</t>
+  </si>
+  <si>
+    <t>获得一台iPhone X</t>
+  </si>
+  <si>
+    <t>实物200元京东卡</t>
+  </si>
+  <si>
+    <t>获得一个黄金吊坠</t>
+  </si>
+  <si>
+    <t>钻石</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提取直充10元电话卡</t>
-  </si>
-  <si>
-    <t>提取直充30元电话卡</t>
-  </si>
-  <si>
-    <t>实物50元京东卡</t>
-  </si>
-  <si>
-    <t>获得一台iPhone X</t>
-  </si>
-  <si>
-    <t>实物200元京东卡</t>
-  </si>
-  <si>
-    <t>获得一个黄金吊坠</t>
   </si>
 </sst>
 </file>
@@ -11630,8 +11630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12245,7 +12245,7 @@
         <v>6002</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -12368,7 +12368,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D34">
         <v>84</v>
@@ -12392,7 +12392,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D35">
         <v>91</v>
@@ -13469,7 +13469,7 @@
         <v>118</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80">
         <v>69</v>
@@ -13637,7 +13637,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D87">
         <v>37</v>
@@ -13685,7 +13685,7 @@
         <v>23</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D89">
         <v>77</v>
@@ -13757,7 +13757,7 @@
         <v>57</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D92">
         <v>1</v>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -11183,26 +11183,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>人民币</t>
+    <t>提取直充10元电话卡</t>
+  </si>
+  <si>
+    <t>提取直充30元电话卡</t>
+  </si>
+  <si>
+    <t>实物50元京东卡</t>
+  </si>
+  <si>
+    <t>获得一台iPhone X</t>
+  </si>
+  <si>
+    <t>实物200元京东卡</t>
+  </si>
+  <si>
+    <t>获得一个黄金吊坠</t>
+  </si>
+  <si>
+    <t>钻石</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提取直充10元电话卡</t>
-  </si>
-  <si>
-    <t>提取直充30元电话卡</t>
-  </si>
-  <si>
-    <t>实物50元京东卡</t>
-  </si>
-  <si>
-    <t>获得一台iPhone X</t>
-  </si>
-  <si>
-    <t>实物200元京东卡</t>
-  </si>
-  <si>
-    <t>获得一个黄金吊坠</t>
   </si>
 </sst>
 </file>
@@ -11630,8 +11630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12245,7 +12245,7 @@
         <v>6002</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -12368,7 +12368,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D34">
         <v>84</v>
@@ -12392,7 +12392,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D35">
         <v>91</v>
@@ -13469,7 +13469,7 @@
         <v>118</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80">
         <v>69</v>
@@ -13637,7 +13637,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D87">
         <v>37</v>
@@ -13685,7 +13685,7 @@
         <v>23</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D89">
         <v>77</v>
@@ -13757,7 +13757,7 @@
         <v>57</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D92">
         <v>1</v>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="240">
   <si>
     <t>string</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>排序(从小到大,默认最后)</t>
-  </si>
-  <si>
-    <t>道具类型</t>
   </si>
   <si>
     <t>int32</t>
@@ -11202,6 +11199,71 @@
   </si>
   <si>
     <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备获得效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备获得效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翅膀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道具类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装备</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11270,7 +11332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11289,6 +11351,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11628,10 +11691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11639,36 +11702,37 @@
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
     <col min="3" max="3" width="81.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -11677,16 +11741,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -11707,14 +11771,14 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
+      <c r="E4" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -11722,7 +11786,7 @@
         <v>10001</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -11739,7 +11803,7 @@
         <v>10002</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -11756,7 +11820,7 @@
         <v>8001</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -11771,10 +11835,10 @@
         <v>7001</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -11795,10 +11859,10 @@
         <v>7002</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9">
         <v>23</v>
@@ -11819,10 +11883,10 @@
         <v>7003</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10">
         <v>31</v>
@@ -11843,10 +11907,10 @@
         <v>7004</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11">
         <v>34</v>
@@ -11867,10 +11931,10 @@
         <v>7005</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12">
         <v>38</v>
@@ -11891,10 +11955,10 @@
         <v>7006</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13">
         <v>44</v>
@@ -11915,10 +11979,10 @@
         <v>7007</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14">
         <v>46</v>
@@ -11939,10 +12003,10 @@
         <v>7008</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15">
         <v>49</v>
@@ -11963,10 +12027,10 @@
         <v>7009</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16">
         <v>53</v>
@@ -11987,10 +12051,10 @@
         <v>7010</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17">
         <v>54</v>
@@ -12011,10 +12075,10 @@
         <v>7011</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18">
         <v>63</v>
@@ -12035,10 +12099,10 @@
         <v>7012</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D19">
         <v>66</v>
@@ -12059,10 +12123,10 @@
         <v>7013</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20">
         <v>70</v>
@@ -12083,10 +12147,10 @@
         <v>7014</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21">
         <v>72</v>
@@ -12107,10 +12171,10 @@
         <v>7015</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22">
         <v>75</v>
@@ -12131,10 +12195,10 @@
         <v>7016</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23">
         <v>80</v>
@@ -12155,10 +12219,10 @@
         <v>7017</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24">
         <v>81</v>
@@ -12179,10 +12243,10 @@
         <v>7018</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25">
         <v>85</v>
@@ -12203,10 +12267,10 @@
         <v>7019</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26">
         <v>90</v>
@@ -12227,7 +12291,7 @@
         <v>6001</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -12245,7 +12309,7 @@
         <v>6002</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -12263,7 +12327,7 @@
         <v>6003</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -12281,7 +12345,7 @@
         <v>6004</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -12299,7 +12363,7 @@
         <v>6005</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -12317,10 +12381,10 @@
         <v>5001</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D32">
         <v>59</v>
@@ -12341,10 +12405,10 @@
         <v>5002</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33">
         <v>76</v>
@@ -12365,10 +12429,10 @@
         <v>5003</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D34">
         <v>84</v>
@@ -12389,10 +12453,10 @@
         <v>5004</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D35">
         <v>91</v>
@@ -12413,10 +12477,10 @@
         <v>4001</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36">
         <v>9</v>
@@ -12437,10 +12501,10 @@
         <v>4002</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D37">
         <v>18</v>
@@ -12461,10 +12525,10 @@
         <v>4003</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38">
         <v>24</v>
@@ -12485,10 +12549,10 @@
         <v>4004</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D39">
         <v>25</v>
@@ -12509,10 +12573,10 @@
         <v>4005</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40">
         <v>27</v>
@@ -12533,10 +12597,10 @@
         <v>4006</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D41">
         <v>29</v>
@@ -12557,10 +12621,10 @@
         <v>4007</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42">
         <v>32</v>
@@ -12581,10 +12645,10 @@
         <v>4008</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D43">
         <v>33</v>
@@ -12605,10 +12669,10 @@
         <v>4009</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D44">
         <v>39</v>
@@ -12629,10 +12693,10 @@
         <v>4010</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D45">
         <v>42</v>
@@ -12653,10 +12717,10 @@
         <v>4011</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D46">
         <v>47</v>
@@ -12677,10 +12741,10 @@
         <v>4012</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D47">
         <v>48</v>
@@ -12701,10 +12765,10 @@
         <v>4013</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48">
         <v>55</v>
@@ -12725,10 +12789,10 @@
         <v>4014</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49">
         <v>58</v>
@@ -12749,10 +12813,10 @@
         <v>4015</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50">
         <v>60</v>
@@ -12773,10 +12837,10 @@
         <v>4016</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51">
         <v>61</v>
@@ -12797,10 +12861,10 @@
         <v>4017</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52">
         <v>64</v>
@@ -12821,10 +12885,10 @@
         <v>4018</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53">
         <v>71</v>
@@ -12845,10 +12909,10 @@
         <v>4019</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54">
         <v>73</v>
@@ -12869,10 +12933,10 @@
         <v>4020</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55">
         <v>78</v>
@@ -12893,10 +12957,10 @@
         <v>4021</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56">
         <v>79</v>
@@ -12917,10 +12981,10 @@
         <v>4022</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57">
         <v>83</v>
@@ -12941,10 +13005,10 @@
         <v>4023</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58">
         <v>87</v>
@@ -12965,10 +13029,10 @@
         <v>4024</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59">
         <v>88</v>
@@ -12989,10 +13053,10 @@
         <v>4025</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60">
         <v>92</v>
@@ -13013,10 +13077,10 @@
         <v>4026</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D61">
         <v>94</v>
@@ -13037,10 +13101,10 @@
         <v>4027</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E62">
         <v>4</v>
@@ -13058,10 +13122,10 @@
         <v>3001</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -13082,10 +13146,10 @@
         <v>3002</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D64">
         <v>13</v>
@@ -13106,10 +13170,10 @@
         <v>3003</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D65">
         <v>16</v>
@@ -13130,10 +13194,10 @@
         <v>3004</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D66">
         <v>17</v>
@@ -13154,10 +13218,10 @@
         <v>3005</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D67">
         <v>20</v>
@@ -13178,10 +13242,10 @@
         <v>3006</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D68">
         <v>28</v>
@@ -13202,10 +13266,10 @@
         <v>3007</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D69">
         <v>35</v>
@@ -13226,10 +13290,10 @@
         <v>3008</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D70">
         <v>36</v>
@@ -13250,10 +13314,10 @@
         <v>3009</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D71">
         <v>40</v>
@@ -13274,10 +13338,10 @@
         <v>3010</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D72">
         <v>45</v>
@@ -13298,10 +13362,10 @@
         <v>3011</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D73">
         <v>50</v>
@@ -13322,10 +13386,10 @@
         <v>3012</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D74">
         <v>56</v>
@@ -13346,10 +13410,10 @@
         <v>3013</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D75">
         <v>57</v>
@@ -13370,10 +13434,10 @@
         <v>3014</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D76">
         <v>62</v>
@@ -13394,10 +13458,10 @@
         <v>3015</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D77">
         <v>65</v>
@@ -13418,10 +13482,10 @@
         <v>3016</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D78">
         <v>67</v>
@@ -13442,10 +13506,10 @@
         <v>3017</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D79">
         <v>68</v>
@@ -13466,10 +13530,10 @@
         <v>3018</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80">
         <v>69</v>
@@ -13490,10 +13554,10 @@
         <v>3019</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D81">
         <v>74</v>
@@ -13514,10 +13578,10 @@
         <v>3020</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D82">
         <v>82</v>
@@ -13538,10 +13602,10 @@
         <v>3021</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D83">
         <v>86</v>
@@ -13562,10 +13626,10 @@
         <v>2001</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D84">
         <v>15</v>
@@ -13586,10 +13650,10 @@
         <v>2002</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D85">
         <v>22</v>
@@ -13610,10 +13674,10 @@
         <v>2003</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D86">
         <v>30</v>
@@ -13634,10 +13698,10 @@
         <v>2004</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D87">
         <v>37</v>
@@ -13658,10 +13722,10 @@
         <v>2005</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D88">
         <v>43</v>
@@ -13682,10 +13746,10 @@
         <v>2006</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D89">
         <v>77</v>
@@ -13706,10 +13770,10 @@
         <v>2007</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -13730,10 +13794,10 @@
         <v>2008</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D91">
         <v>93</v>
@@ -13754,10 +13818,10 @@
         <v>1001</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -13778,10 +13842,10 @@
         <v>1002</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -13802,10 +13866,10 @@
         <v>1003</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -13826,10 +13890,10 @@
         <v>1004</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -13850,10 +13914,10 @@
         <v>1005</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D96">
         <v>6</v>
@@ -13874,10 +13938,10 @@
         <v>1006</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D97">
         <v>7</v>
@@ -13898,10 +13962,10 @@
         <v>1007</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D98">
         <v>8</v>
@@ -13922,10 +13986,10 @@
         <v>1008</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D99">
         <v>10</v>
@@ -13946,10 +14010,10 @@
         <v>1009</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D100">
         <v>11</v>
@@ -13970,10 +14034,10 @@
         <v>1010</v>
       </c>
       <c r="B101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D101">
         <v>14</v>
@@ -13994,10 +14058,10 @@
         <v>1011</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D102">
         <v>19</v>
@@ -14018,10 +14082,10 @@
         <v>1012</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D103">
         <v>21</v>
@@ -14042,10 +14106,10 @@
         <v>1013</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D104">
         <v>26</v>
@@ -14066,10 +14130,10 @@
         <v>1014</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D105">
         <v>41</v>
@@ -14090,10 +14154,10 @@
         <v>1015</v>
       </c>
       <c r="B106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D106">
         <v>51</v>
@@ -14114,10 +14178,10 @@
         <v>1016</v>
       </c>
       <c r="B107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D107">
         <v>52</v>
@@ -14131,6 +14195,188 @@
       <c r="G107">
         <f t="shared" si="1"/>
         <v>3490</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>101</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>102</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>201</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>202</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>301</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>302</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E113">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>401</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>402</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>501</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>502</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>601</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>602</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E119">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>701</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E120">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -14156,7 +14402,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14168,54 +14414,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28845" yWindow="195" windowWidth="27075" windowHeight="11955" tabRatio="204"/>
+    <workbookView xWindow="26655" yWindow="30" windowWidth="27075" windowHeight="11955" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TItem" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="261">
   <si>
     <t>string</t>
   </si>
@@ -11202,69 +11202,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>头盔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装备获得效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裤子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棒棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装备获得效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>翅膀</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道具类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装备</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>套装1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>道具类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>装备</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>头盔5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔6</t>
+  </si>
+  <si>
+    <t>头盔7</t>
+  </si>
+  <si>
+    <t>头盔8</t>
+  </si>
+  <si>
+    <t>头盔9</t>
+  </si>
+  <si>
+    <t>头盔10</t>
+  </si>
+  <si>
+    <t>上衣5</t>
+  </si>
+  <si>
+    <t>上衣6</t>
+  </si>
+  <si>
+    <t>上衣7</t>
+  </si>
+  <si>
+    <t>上衣8</t>
+  </si>
+  <si>
+    <t>上衣9</t>
+  </si>
+  <si>
+    <t>上衣10</t>
+  </si>
+  <si>
+    <t>裤子5</t>
+  </si>
+  <si>
+    <t>裤子6</t>
+  </si>
+  <si>
+    <t>裤子7</t>
+  </si>
+  <si>
+    <t>鞋子5</t>
+  </si>
+  <si>
+    <t>鞋子6</t>
+  </si>
+  <si>
+    <t>鞋子7</t>
+  </si>
+  <si>
+    <t>鞋子8</t>
+  </si>
+  <si>
+    <t>鞋子9</t>
+  </si>
+  <si>
+    <t>鞋子10</t>
+  </si>
+  <si>
+    <t>翅膀1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>翅膀2</t>
+  </si>
+  <si>
+    <t>翅膀3</t>
+  </si>
+  <si>
+    <t>翅膀4</t>
+  </si>
+  <si>
+    <t>翅膀5</t>
+  </si>
+  <si>
+    <t>手持1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手持2</t>
   </si>
 </sst>
 </file>
@@ -11274,7 +11333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -11301,6 +11360,12 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -11691,10 +11756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11772,7 +11837,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>213</v>
@@ -14198,56 +14263,56 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>101</v>
       </c>
       <c r="B108" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="E108">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>102</v>
       </c>
       <c r="B109" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="E109">
         <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>201</v>
+      <c r="A110" s="1">
+        <v>103</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E110">
         <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>202</v>
+      <c r="A111" s="1">
+        <v>104</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E111">
         <v>11</v>
@@ -14255,13 +14320,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>301</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>233</v>
+        <v>105</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E112">
         <v>11</v>
@@ -14269,13 +14334,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>302</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>233</v>
+        <v>106</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E113">
         <v>11</v>
@@ -14283,13 +14348,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>401</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>234</v>
+        <v>201</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E114">
         <v>11</v>
@@ -14297,10 +14362,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>402</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>234</v>
+        <v>202</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>231</v>
@@ -14311,13 +14376,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>501</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>235</v>
+        <v>203</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E116">
         <v>11</v>
@@ -14325,13 +14390,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>502</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>235</v>
+        <v>204</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E117">
         <v>11</v>
@@ -14339,13 +14404,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>601</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>237</v>
+        <v>205</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E118">
         <v>11</v>
@@ -14353,13 +14418,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>602</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>237</v>
+        <v>206</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E119">
         <v>11</v>
@@ -14367,15 +14432,225 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>701</v>
+        <v>301</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>302</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>303</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>401</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>402</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>403</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>404</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>405</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E127">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>406</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>501</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E129">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>502</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>503</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E131">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>504</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>505</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E133">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>601</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>602</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E135">
         <v>11</v>
       </c>
     </row>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="26655" yWindow="30" windowWidth="27075" windowHeight="11955" tabRatio="204"/>
+    <workbookView xWindow="540" yWindow="195" windowWidth="27075" windowHeight="11955" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TItem" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="269">
   <si>
     <t>string</t>
   </si>
@@ -11202,128 +11202,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道具类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装备</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>装备获得效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备获得效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>道具类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>装备</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头盔5</t>
+  </si>
+  <si>
+    <t>男套头1</t>
+  </si>
+  <si>
+    <t>女套头1</t>
+  </si>
+  <si>
+    <t>男套衣1</t>
+  </si>
+  <si>
+    <t>女套衣1</t>
+  </si>
+  <si>
+    <t>男套裤1</t>
+  </si>
+  <si>
+    <t>女套裤1</t>
+  </si>
+  <si>
+    <t>男套鞋1</t>
+  </si>
+  <si>
+    <t>女套鞋1</t>
+  </si>
+  <si>
+    <t>绅士金发</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>头盔6</t>
-  </si>
-  <si>
-    <t>头盔7</t>
-  </si>
-  <si>
-    <t>头盔8</t>
-  </si>
-  <si>
-    <t>头盔9</t>
-  </si>
-  <si>
-    <t>头盔10</t>
-  </si>
-  <si>
-    <t>上衣5</t>
-  </si>
-  <si>
-    <t>上衣6</t>
-  </si>
-  <si>
-    <t>上衣7</t>
-  </si>
-  <si>
-    <t>上衣8</t>
-  </si>
-  <si>
-    <t>上衣9</t>
-  </si>
-  <si>
-    <t>上衣10</t>
-  </si>
-  <si>
-    <t>裤子5</t>
-  </si>
-  <si>
-    <t>裤子6</t>
-  </si>
-  <si>
-    <t>裤子7</t>
-  </si>
-  <si>
-    <t>鞋子5</t>
-  </si>
-  <si>
-    <t>鞋子6</t>
-  </si>
-  <si>
-    <t>鞋子7</t>
-  </si>
-  <si>
-    <t>鞋子8</t>
-  </si>
-  <si>
-    <t>鞋子9</t>
-  </si>
-  <si>
-    <t>鞋子10</t>
-  </si>
-  <si>
-    <t>翅膀1</t>
+    <t>绅士绿发</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>翅膀2</t>
-  </si>
-  <si>
-    <t>翅膀3</t>
-  </si>
-  <si>
-    <t>翅膀4</t>
-  </si>
-  <si>
-    <t>翅膀5</t>
-  </si>
-  <si>
-    <t>手持1</t>
+    <t>绅士蓝发</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>手持2</t>
+    <t>少女橘发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女紫发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女蓝发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士装(红）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士装(绿）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士装(蓝）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>连衣裙(红）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>连衣裙(橘）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>连衣裙(蓝）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士裤(红）</t>
+  </si>
+  <si>
+    <t>绅士裤(绿）</t>
+  </si>
+  <si>
+    <t>绅士裤(蓝）</t>
+  </si>
+  <si>
+    <t>皮鞋(紫）</t>
+  </si>
+  <si>
+    <t>皮鞋(蓝）</t>
+  </si>
+  <si>
+    <t>皮鞋(白）</t>
+  </si>
+  <si>
+    <t>少女鞋(紫）</t>
+  </si>
+  <si>
+    <t>少女鞋(黑）</t>
+  </si>
+  <si>
+    <t>少女鞋(蓝）</t>
+  </si>
+  <si>
+    <t>乌鸦之翼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>光之翼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔之翼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使之翼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术扑克</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>银</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11756,10 +11795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11837,7 +11876,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>213</v>
@@ -14267,10 +14306,10 @@
         <v>101</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -14281,10 +14320,10 @@
         <v>102</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E109">
         <v>11</v>
@@ -14295,10 +14334,10 @@
         <v>103</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E110">
         <v>11</v>
@@ -14309,10 +14348,10 @@
         <v>104</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E111">
         <v>11</v>
@@ -14323,10 +14362,10 @@
         <v>105</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E112">
         <v>11</v>
@@ -14337,10 +14376,10 @@
         <v>106</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E113">
         <v>11</v>
@@ -14348,13 +14387,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E114">
         <v>11</v>
@@ -14362,10 +14401,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>231</v>
@@ -14376,10 +14415,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>231</v>
@@ -14390,10 +14429,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>231</v>
@@ -14404,10 +14443,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>231</v>
@@ -14418,10 +14457,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>231</v>
@@ -14432,13 +14471,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>301</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>245</v>
+        <v>205</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E120">
         <v>11</v>
@@ -14446,13 +14485,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>302</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>246</v>
+        <v>206</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E121">
         <v>11</v>
@@ -14460,13 +14499,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>303</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>247</v>
+        <v>207</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E122">
         <v>11</v>
@@ -14474,13 +14513,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>401</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>248</v>
+        <v>208</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E123">
         <v>11</v>
@@ -14488,13 +14527,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>402</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>249</v>
+        <v>301</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E124">
         <v>11</v>
@@ -14502,13 +14541,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>403</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>250</v>
+        <v>302</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E125">
         <v>11</v>
@@ -14516,13 +14555,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>404</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>251</v>
+        <v>303</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E126">
         <v>11</v>
@@ -14530,13 +14569,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>405</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>252</v>
+        <v>304</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E127">
         <v>11</v>
@@ -14544,13 +14583,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>406</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>253</v>
+        <v>305</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E128">
         <v>11</v>
@@ -14558,13 +14597,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>501</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>254</v>
+        <v>401</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E129">
         <v>11</v>
@@ -14572,13 +14611,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>502</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>255</v>
+        <v>402</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E130">
         <v>11</v>
@@ -14586,13 +14625,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>503</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>256</v>
+        <v>403</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E131">
         <v>11</v>
@@ -14600,13 +14639,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>504</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>257</v>
+        <v>404</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E132">
         <v>11</v>
@@ -14614,13 +14653,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>505</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>258</v>
+        <v>405</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E133">
         <v>11</v>
@@ -14628,13 +14667,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>601</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>259</v>
+        <v>406</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E134">
         <v>11</v>
@@ -14642,15 +14681,141 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
+        <v>407</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E135">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>408</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>501</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>502</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>503</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E139">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>504</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E140">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>601</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E141">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
         <v>602</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E135">
+      <c r="B142" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>701</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E143">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>702</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E144">
         <v>11</v>
       </c>
     </row>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="270">
   <si>
     <t>string</t>
   </si>
@@ -11362,6 +11362,10 @@
   </si>
   <si>
     <t>樱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾利欧</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -11795,10 +11799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14816,6 +14820,20 @@
         <v>231</v>
       </c>
       <c r="E144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>703</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E145">
         <v>11</v>
       </c>
     </row>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -10,12 +10,12 @@
     <sheet name="TItem" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="263">
   <si>
     <t>string</t>
   </si>
@@ -11234,30 +11234,6 @@
     <t>装备获得效果</t>
   </si>
   <si>
-    <t>男套头1</t>
-  </si>
-  <si>
-    <t>女套头1</t>
-  </si>
-  <si>
-    <t>男套衣1</t>
-  </si>
-  <si>
-    <t>女套衣1</t>
-  </si>
-  <si>
-    <t>男套裤1</t>
-  </si>
-  <si>
-    <t>女套裤1</t>
-  </si>
-  <si>
-    <t>男套鞋1</t>
-  </si>
-  <si>
-    <t>女套鞋1</t>
-  </si>
-  <si>
     <t>绅士金发</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -11282,55 +11258,54 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>绅士装(红）</t>
+    <t>绅士装(红)</t>
+  </si>
+  <si>
+    <t>绅士装(绿)</t>
+  </si>
+  <si>
+    <t>绅士装(蓝)</t>
+  </si>
+  <si>
+    <t>连衣裙(红)</t>
+  </si>
+  <si>
+    <t>连衣裙(橘)</t>
+  </si>
+  <si>
+    <t>短袖上衣(蓝)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>绅士装(绿）</t>
+    <t>绅士裤(红)</t>
+  </si>
+  <si>
+    <t>绅士裤(绿)</t>
+  </si>
+  <si>
+    <t>绅士裤(蓝)</t>
+  </si>
+  <si>
+    <t>短裤(蓝)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>绅士装(蓝）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>连衣裙(红）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>连衣裙(橘）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>连衣裙(蓝）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>绅士裤(红）</t>
-  </si>
-  <si>
-    <t>绅士裤(绿）</t>
-  </si>
-  <si>
-    <t>绅士裤(蓝）</t>
-  </si>
-  <si>
-    <t>皮鞋(紫）</t>
-  </si>
-  <si>
-    <t>皮鞋(蓝）</t>
-  </si>
-  <si>
-    <t>皮鞋(白）</t>
-  </si>
-  <si>
-    <t>少女鞋(紫）</t>
-  </si>
-  <si>
-    <t>少女鞋(黑）</t>
-  </si>
-  <si>
-    <t>少女鞋(蓝）</t>
+    <t>皮鞋(紫)</t>
+  </si>
+  <si>
+    <t>皮鞋(蓝)</t>
+  </si>
+  <si>
+    <t>皮鞋(白)</t>
+  </si>
+  <si>
+    <t>少女鞋(紫)</t>
+  </si>
+  <si>
+    <t>少女鞋(黑)</t>
+  </si>
+  <si>
+    <t>少女鞋(蓝)</t>
   </si>
   <si>
     <t>乌鸦之翼</t>
@@ -11799,10 +11774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="B97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14310,7 +14285,7 @@
         <v>101</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>231</v>
@@ -14324,7 +14299,7 @@
         <v>102</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>231</v>
@@ -14338,7 +14313,7 @@
         <v>103</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>231</v>
@@ -14352,7 +14327,7 @@
         <v>104</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>231</v>
@@ -14366,7 +14341,7 @@
         <v>105</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>231</v>
@@ -14380,7 +14355,7 @@
         <v>106</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>231</v>
@@ -14391,10 +14366,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>231</v>
@@ -14405,10 +14380,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>231</v>
@@ -14419,10 +14394,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>231</v>
@@ -14433,10 +14408,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>231</v>
@@ -14447,10 +14422,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>231</v>
@@ -14461,10 +14436,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>231</v>
@@ -14475,10 +14450,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>231</v>
@@ -14489,10 +14464,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>231</v>
@@ -14503,10 +14478,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>231</v>
@@ -14517,10 +14492,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>231</v>
@@ -14531,10 +14506,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>231</v>
@@ -14545,10 +14520,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>302</v>
+        <v>402</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>231</v>
@@ -14559,10 +14534,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>231</v>
@@ -14573,10 +14548,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>231</v>
@@ -14587,10 +14562,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>305</v>
+        <v>405</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>231</v>
@@ -14601,10 +14576,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>231</v>
@@ -14615,10 +14590,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>402</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>256</v>
+        <v>501</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>231</v>
@@ -14629,10 +14604,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>403</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>257</v>
+        <v>502</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>231</v>
@@ -14643,10 +14618,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>404</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>258</v>
+        <v>503</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>231</v>
@@ -14657,10 +14632,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>405</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>259</v>
+        <v>504</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>231</v>
@@ -14671,10 +14646,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>406</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>260</v>
+        <v>601</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>231</v>
@@ -14685,10 +14660,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>407</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>238</v>
+        <v>602</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>231</v>
@@ -14699,10 +14674,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>408</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>239</v>
+        <v>701</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>231</v>
@@ -14713,7 +14688,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>501</v>
+        <v>702</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>261</v>
@@ -14727,7 +14702,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>502</v>
+        <v>703</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>262</v>
@@ -14736,104 +14711,6 @@
         <v>231</v>
       </c>
       <c r="E138">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>503</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E139">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>504</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E140">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>601</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E141">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>602</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E142">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>701</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E143">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>702</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E144">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>703</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E145">
         <v>11</v>
       </c>
     </row>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="264">
   <si>
     <t>string</t>
   </si>
@@ -11234,6 +11234,45 @@
     <t>装备获得效果</t>
   </si>
   <si>
+    <t>绅士装(红)</t>
+  </si>
+  <si>
+    <t>绅士装(绿)</t>
+  </si>
+  <si>
+    <t>绅士装(蓝)</t>
+  </si>
+  <si>
+    <t>连衣裙(橘)</t>
+  </si>
+  <si>
+    <t>绅士裤(红)</t>
+  </si>
+  <si>
+    <t>绅士裤(绿)</t>
+  </si>
+  <si>
+    <t>绅士裤(蓝)</t>
+  </si>
+  <si>
+    <t>皮鞋(紫)</t>
+  </si>
+  <si>
+    <t>皮鞋(蓝)</t>
+  </si>
+  <si>
+    <t>皮鞋(白)</t>
+  </si>
+  <si>
+    <t>少女鞋(紫)</t>
+  </si>
+  <si>
+    <t>少女鞋(黑)</t>
+  </si>
+  <si>
+    <t>少女鞋(蓝)</t>
+  </si>
+  <si>
     <t>绅士金发</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -11258,54 +11297,20 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>绅士装(红)</t>
-  </si>
-  <si>
-    <t>绅士装(绿)</t>
-  </si>
-  <si>
-    <t>绅士装(蓝)</t>
-  </si>
-  <si>
-    <t>连衣裙(红)</t>
-  </si>
-  <si>
-    <t>连衣裙(橘)</t>
-  </si>
-  <si>
-    <t>短袖上衣(蓝)</t>
+    <t>星星无袖</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>绅士裤(红)</t>
-  </si>
-  <si>
-    <t>绅士裤(绿)</t>
-  </si>
-  <si>
-    <t>绅士裤(蓝)</t>
-  </si>
-  <si>
-    <t>短裤(蓝)</t>
+    <t>蓝色短袖</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>皮鞋(紫)</t>
-  </si>
-  <si>
-    <t>皮鞋(蓝)</t>
-  </si>
-  <si>
-    <t>皮鞋(白)</t>
-  </si>
-  <si>
-    <t>少女鞋(紫)</t>
-  </si>
-  <si>
-    <t>少女鞋(黑)</t>
-  </si>
-  <si>
-    <t>少女鞋(蓝)</t>
+    <t>牛仔短裤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色短裙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>乌鸦之翼</t>
@@ -11774,10 +11779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="C109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14285,7 +14290,7 @@
         <v>101</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>231</v>
@@ -14299,7 +14304,7 @@
         <v>102</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>231</v>
@@ -14313,7 +14318,7 @@
         <v>103</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>231</v>
@@ -14327,7 +14332,7 @@
         <v>104</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>231</v>
@@ -14341,7 +14346,7 @@
         <v>105</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>231</v>
@@ -14355,7 +14360,7 @@
         <v>106</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>231</v>
@@ -14369,7 +14374,7 @@
         <v>201</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>231</v>
@@ -14383,7 +14388,7 @@
         <v>202</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>231</v>
@@ -14397,7 +14402,7 @@
         <v>203</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>231</v>
@@ -14411,7 +14416,7 @@
         <v>204</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>231</v>
@@ -14425,7 +14430,7 @@
         <v>205</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>231</v>
@@ -14439,7 +14444,7 @@
         <v>206</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>231</v>
@@ -14453,7 +14458,7 @@
         <v>301</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>231</v>
@@ -14467,7 +14472,7 @@
         <v>302</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>231</v>
@@ -14481,7 +14486,7 @@
         <v>303</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>231</v>
@@ -14495,7 +14500,7 @@
         <v>304</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>231</v>
@@ -14506,10 +14511,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>401</v>
+        <v>305</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>231</v>
@@ -14520,10 +14525,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>231</v>
@@ -14534,10 +14539,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>231</v>
@@ -14548,10 +14553,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>231</v>
@@ -14562,10 +14567,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>231</v>
@@ -14576,10 +14581,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>231</v>
@@ -14590,10 +14595,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>501</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>254</v>
+        <v>406</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>231</v>
@@ -14604,7 +14609,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>255</v>
@@ -14618,7 +14623,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>256</v>
@@ -14632,7 +14637,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>257</v>
@@ -14646,7 +14651,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>601</v>
+        <v>504</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>258</v>
@@ -14660,7 +14665,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>259</v>
@@ -14674,7 +14679,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>701</v>
+        <v>602</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>260</v>
@@ -14688,7 +14693,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>261</v>
@@ -14702,7 +14707,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>262</v>
@@ -14711,6 +14716,20 @@
         <v>231</v>
       </c>
       <c r="E138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>703</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E139">
         <v>11</v>
       </c>
     </row>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="265">
   <si>
     <t>string</t>
   </si>
@@ -11234,37 +11234,10 @@
     <t>装备获得效果</t>
   </si>
   <si>
-    <t>绅士装(红)</t>
-  </si>
-  <si>
-    <t>绅士装(绿)</t>
-  </si>
-  <si>
-    <t>绅士装(蓝)</t>
-  </si>
-  <si>
-    <t>连衣裙(橘)</t>
-  </si>
-  <si>
-    <t>绅士裤(红)</t>
-  </si>
-  <si>
-    <t>绅士裤(绿)</t>
-  </si>
-  <si>
-    <t>绅士裤(蓝)</t>
-  </si>
-  <si>
-    <t>皮鞋(紫)</t>
-  </si>
-  <si>
     <t>皮鞋(蓝)</t>
   </si>
   <si>
     <t>皮鞋(白)</t>
-  </si>
-  <si>
-    <t>少女鞋(紫)</t>
   </si>
   <si>
     <t>少女鞋(黑)</t>
@@ -11297,19 +11270,59 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>黑色迷彩卫衣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士装</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水手短袖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>星星无袖</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>绿色夹克</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>蓝色短袖</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>军装裤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士裤(绿)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水手短裤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>牛仔短裤</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>粉色短裙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色短裤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色跑鞋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白鞋</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -11779,10 +11792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="C115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14290,7 +14303,7 @@
         <v>101</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>231</v>
@@ -14304,7 +14317,7 @@
         <v>102</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>231</v>
@@ -14318,7 +14331,7 @@
         <v>103</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>231</v>
@@ -14332,7 +14345,7 @@
         <v>104</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>231</v>
@@ -14346,7 +14359,7 @@
         <v>105</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>231</v>
@@ -14360,7 +14373,7 @@
         <v>106</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>231</v>
@@ -14374,7 +14387,7 @@
         <v>201</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>231</v>
@@ -14388,7 +14401,7 @@
         <v>202</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>231</v>
@@ -14402,7 +14415,7 @@
         <v>203</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>231</v>
@@ -14416,7 +14429,7 @@
         <v>204</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>231</v>
@@ -14430,7 +14443,7 @@
         <v>205</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>231</v>
@@ -14444,7 +14457,7 @@
         <v>206</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>231</v>
@@ -14458,7 +14471,7 @@
         <v>301</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>231</v>
@@ -14472,7 +14485,7 @@
         <v>302</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>231</v>
@@ -14486,7 +14499,7 @@
         <v>303</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>231</v>
@@ -14500,7 +14513,7 @@
         <v>304</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>231</v>
@@ -14514,7 +14527,7 @@
         <v>305</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>231</v>
@@ -14525,10 +14538,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>231</v>
@@ -14539,10 +14552,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>231</v>
@@ -14553,10 +14566,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>231</v>
@@ -14567,10 +14580,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>231</v>
@@ -14581,10 +14594,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>231</v>
@@ -14595,10 +14608,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>231</v>
@@ -14609,10 +14622,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>501</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>255</v>
+        <v>406</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>231</v>
@@ -14623,7 +14636,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>256</v>
@@ -14637,7 +14650,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>257</v>
@@ -14651,7 +14664,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>258</v>
@@ -14665,7 +14678,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>601</v>
+        <v>504</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>259</v>
@@ -14679,7 +14692,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>260</v>
@@ -14693,7 +14706,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>701</v>
+        <v>602</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>261</v>
@@ -14707,7 +14720,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>262</v>
@@ -14721,7 +14734,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>263</v>
@@ -14730,6 +14743,20 @@
         <v>231</v>
       </c>
       <c r="E139">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>703</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E140">
         <v>11</v>
       </c>
     </row>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -620,7 +620,7 @@
   <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>string</t>
   </si>
@@ -194,6 +194,10 @@
   </si>
   <si>
     <t>用于轮胎升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +624,7 @@
   <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -649,7 +653,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>string</t>
   </si>
@@ -194,6 +194,14 @@
   </si>
   <si>
     <t>用于轮胎升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1白2绿3蓝4紫5橙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,20 +625,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.3984375" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -638,13 +647,16 @@
         <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -652,852 +664,979 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D36"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D42"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D43"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D44"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D49"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D50"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D51"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D52"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D53"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D54"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D55"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D56"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D57"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D58"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D59"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D60"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D61"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C62"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D63"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D64"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D65"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D66"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D68"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D69"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D70"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D71"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D72"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D74"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D76"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D77"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D78"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D79"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D80"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D81"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D82"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D83"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D84"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D88"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D92"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D93"/>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D94"/>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D95"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D97"/>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D98"/>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D99"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D100"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D101"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D102"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D103"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C104"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D105"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D106"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C108" s="5"/>
+      <c r="D107"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D108" s="5"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C109" s="5"/>
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D109" s="5"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C110" s="5"/>
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D110" s="5"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C111" s="5"/>
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D111" s="5"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C112" s="5"/>
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D112" s="5"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C113" s="5"/>
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D113" s="5"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C114" s="5"/>
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D114" s="5"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C115" s="5"/>
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D115" s="5"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C116" s="5"/>
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D116" s="5"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C117" s="5"/>
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D117" s="5"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C118" s="5"/>
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D118" s="5"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C119" s="5"/>
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D119" s="5"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C120" s="5"/>
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D120" s="5"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C121" s="5"/>
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D121" s="5"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C122" s="5"/>
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D122" s="5"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C123" s="5"/>
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D123" s="5"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C124" s="5"/>
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D124" s="5"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C125" s="5"/>
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D125" s="5"/>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C126" s="5"/>
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D126" s="5"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C127" s="5"/>
+      <c r="E126" s="5"/>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D127" s="5"/>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C128" s="5"/>
+      <c r="E127" s="5"/>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D128" s="5"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C129" s="5"/>
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D129" s="5"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C130" s="5"/>
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D130" s="5"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C131" s="5"/>
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D131" s="5"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C132" s="7"/>
-      <c r="D132" s="5"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C133" s="7"/>
-      <c r="D133" s="5"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C134" s="7"/>
-      <c r="D134" s="5"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C135" s="7"/>
-      <c r="D135" s="5"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C136" s="7"/>
-      <c r="D136" s="5"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C137" s="7"/>
-      <c r="D137" s="5"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C138" s="7"/>
-      <c r="D138" s="5"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C139" s="7"/>
-      <c r="D139" s="5"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D132" s="7"/>
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D133" s="7"/>
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D134" s="7"/>
+      <c r="E134" s="5"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D135" s="7"/>
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D136" s="7"/>
+      <c r="E136" s="5"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D137" s="7"/>
+      <c r="E137" s="5"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D138" s="7"/>
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D139" s="7"/>
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>703</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="D140" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="E140" s="5" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>string</t>
   </si>
@@ -198,6 +198,14 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1白2绿3蓝4紫5橙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -630,11 +638,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -642,13 +651,16 @@
         <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -656,852 +668,979 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D36"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D42"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D43"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D44"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D49"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D50"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D51"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D52"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D53"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D54"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D55"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D56"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D57"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D58"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D59"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D60"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D61"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C62"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D63"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D64"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D65"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D66"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D68"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D69"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D70"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D71"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D72"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D74"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D76"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D77"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D78"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D79"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D80"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D81"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D82"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D83"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D84"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D88"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D92"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D93"/>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D94"/>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D95"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D97"/>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D98"/>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D99"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D100"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D101"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D102"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D103"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C104"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D105"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D106"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C108" s="5"/>
+      <c r="D107"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D108" s="5"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C109" s="5"/>
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D109" s="5"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C110" s="5"/>
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D110" s="5"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C111" s="5"/>
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D111" s="5"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C112" s="5"/>
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D112" s="5"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C113" s="5"/>
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D113" s="5"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C114" s="5"/>
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D114" s="5"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C115" s="5"/>
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D115" s="5"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C116" s="5"/>
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D116" s="5"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C117" s="5"/>
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D117" s="5"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C118" s="5"/>
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D118" s="5"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C119" s="5"/>
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D119" s="5"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C120" s="5"/>
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D120" s="5"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C121" s="5"/>
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D121" s="5"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C122" s="5"/>
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D122" s="5"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C123" s="5"/>
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D123" s="5"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C124" s="5"/>
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D124" s="5"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C125" s="5"/>
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D125" s="5"/>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C126" s="5"/>
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D126" s="5"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C127" s="5"/>
+      <c r="E126" s="5"/>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D127" s="5"/>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C128" s="5"/>
+      <c r="E127" s="5"/>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D128" s="5"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C129" s="5"/>
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D129" s="5"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C130" s="5"/>
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D130" s="5"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C131" s="5"/>
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D131" s="5"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C132" s="7"/>
-      <c r="D132" s="5"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C133" s="7"/>
-      <c r="D133" s="5"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C134" s="7"/>
-      <c r="D134" s="5"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C135" s="7"/>
-      <c r="D135" s="5"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C136" s="7"/>
-      <c r="D136" s="5"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C137" s="7"/>
-      <c r="D137" s="5"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C138" s="7"/>
-      <c r="D138" s="5"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C139" s="7"/>
-      <c r="D139" s="5"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D132" s="7"/>
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D133" s="7"/>
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D134" s="7"/>
+      <c r="E134" s="5"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D135" s="7"/>
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D136" s="7"/>
+      <c r="E136" s="5"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D137" s="7"/>
+      <c r="E137" s="5"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D138" s="7"/>
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D139" s="7"/>
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>703</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="D140" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="E140" s="5" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>string</t>
   </si>
@@ -125,22 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客厅图纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卧室图纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房图纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生间图纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发动机零件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,22 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用于客厅升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于卧室升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于厨房升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于卫生间升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于发动机升级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +174,44 @@
   </si>
   <si>
     <t>1白2绿3蓝4紫5橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳胶漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">瓷砖 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋设计图纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于客厅，卧室升级</t>
+  </si>
+  <si>
+    <t>用于客厅，卧室升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于厨房，卫生间升级</t>
+  </si>
+  <si>
+    <t>用于厨房，卫生间升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于房屋升级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +638,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -651,7 +657,7 @@
         <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>22</v>
@@ -665,7 +671,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -690,7 +696,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -710,10 +716,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -727,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -744,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -761,10 +767,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -778,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -795,10 +801,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -812,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -829,10 +835,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -846,18 +852,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15"/>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -1,21 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="195" windowWidth="27075" windowHeight="11955" tabRatio="204"/>
+    <workbookView windowWidth="26775" windowHeight="8070" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TItem" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
   <si>
     <t>string</t>
   </si>
@@ -26,229 +47,323 @@
     <t>道具ID</t>
   </si>
   <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>1白2绿3蓝4紫5橙</t>
+  </si>
+  <si>
     <t>道具名</t>
   </si>
   <si>
     <t>道具简介</t>
   </si>
   <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>FieldType</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>对象类型</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>枚举值</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>特性</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>乳胶漆</t>
+  </si>
+  <si>
+    <t>用于客厅，卧室升级</t>
+  </si>
+  <si>
+    <t>木地板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瓷砖 </t>
+  </si>
+  <si>
+    <t>用于厨房，卫生间升级</t>
+  </si>
+  <si>
+    <t>房屋设计图纸</t>
+  </si>
+  <si>
+    <t>用于房屋升级</t>
+  </si>
+  <si>
+    <t>发动机零件</t>
+  </si>
+  <si>
+    <t>用于发动机升级</t>
+  </si>
+  <si>
+    <t>电瓶零件</t>
+  </si>
+  <si>
+    <t>用于电瓶升级</t>
+  </si>
+  <si>
+    <t>后备箱零件</t>
+  </si>
+  <si>
+    <t>用于后备箱升级</t>
+  </si>
+  <si>
+    <t>油箱零件</t>
+  </si>
+  <si>
+    <t>用于邮箱升级</t>
+  </si>
+  <si>
+    <t>轮胎零件</t>
+  </si>
+  <si>
+    <t>用于轮胎升级</t>
+  </si>
+  <si>
+    <t>吊顶</t>
+  </si>
+  <si>
+    <t>艾利欧</t>
+  </si>
+  <si>
+    <t>装备获得效果</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>TableName: "ItemBaseData</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备获得效果</t>
-  </si>
-  <si>
-    <t>艾利欧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发动机零件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电瓶零件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后备箱零件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱零件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮胎零件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于发动机升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于电瓶升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于后备箱升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于邮箱升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于轮胎升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1白2绿3蓝4紫5橙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳胶漆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木地板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">瓷砖 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房屋设计图纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于客厅，卧室升级</t>
-  </si>
-  <si>
-    <t>用于客厅，卧室升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于厨房，卫生间升级</t>
-  </si>
-  <si>
-    <t>用于厨房，卫生间升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于房屋升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>对象类型</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>注释</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +376,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -270,9 +571,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -280,34 +823,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -629,83 +1216,83 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="11.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.3984375" customWidth="1"/>
+    <col min="1" max="2" width="11.1" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.1" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -716,13 +1303,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -733,13 +1320,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -750,13 +1337,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>4</v>
       </c>
@@ -767,13 +1354,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>5</v>
       </c>
@@ -784,13 +1371,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>6</v>
       </c>
@@ -801,13 +1388,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>7</v>
       </c>
@@ -818,13 +1405,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>8</v>
       </c>
@@ -835,13 +1422,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>9</v>
       </c>
@@ -852,13 +1439,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>10</v>
       </c>
@@ -869,801 +1456,800 @@
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
-      <c r="E93" s="6"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
-      <c r="E94" s="6"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
-      <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
-      <c r="E96" s="6"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
-      <c r="E97" s="6"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
-      <c r="E98" s="6"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
-      <c r="E99" s="6"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
-      <c r="E100" s="6"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
-      <c r="E101" s="6"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
-      <c r="E102" s="6"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
-      <c r="E103" s="6"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="6"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
-      <c r="E105" s="6"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
-      <c r="E106" s="6"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
-      <c r="E107" s="6"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="4:5">
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:5">
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:5">
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:5">
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:5">
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:5">
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:5">
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:5">
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:5">
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:5">
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:5">
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:5">
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:5">
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:5">
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:5">
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:5">
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:5">
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:5">
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:5">
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:5">
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:5">
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:5">
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:5">
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:5">
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D132" s="7"/>
+    <row r="132" spans="4:5">
+      <c r="D132" s="8"/>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D133" s="7"/>
+    <row r="133" spans="4:5">
+      <c r="D133" s="8"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D134" s="7"/>
+    <row r="134" spans="4:5">
+      <c r="D134" s="8"/>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D135" s="7"/>
+    <row r="135" spans="4:5">
+      <c r="D135" s="8"/>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D136" s="7"/>
+    <row r="136" spans="4:5">
+      <c r="D136" s="8"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D137" s="7"/>
+    <row r="137" spans="4:5">
+      <c r="D137" s="8"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D138" s="7"/>
+    <row r="138" spans="4:5">
+      <c r="D138" s="8"/>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D139" s="7"/>
+    <row r="139" spans="4:5">
+      <c r="D139" s="8"/>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
         <v>703</v>
       </c>
-      <c r="D140" s="7" t="s">
-        <v>27</v>
+      <c r="D140" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1672,82 +2258,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26775" windowHeight="8070" tabRatio="204"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="8070" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TItem" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>Id</t>
   </si>
@@ -123,7 +123,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>TableName: "ItemBaseData</t>
     </r>
@@ -131,7 +131,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     </r>
@@ -183,19 +183,179 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>用于厨房，卫生间升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用于女仆升级 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女橘发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女紫发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女蓝发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星无袖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色夹克</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色短袖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛仔短裤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色短裙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色短裤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白鞋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女鞋(黑)</t>
+  </si>
+  <si>
+    <t>少女鞋(蓝)</t>
+  </si>
+  <si>
+    <t>樱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女紫发碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女蓝发碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星无袖碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色夹克碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色短袖碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛仔短裤碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色短裙碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色短裤碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白鞋碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女鞋(蓝)碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女红发碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女鞋(红)碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于少女红发合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于少女紫发合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于少女蓝发合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于星星无袖合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于绿色夹克合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于蓝色短袖合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于牛仔短裤合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于粉色短裙合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于灰色短裤合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于小白鞋合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于少女鞋(红)合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于少女鞋(蓝)合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于樱碎片合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -204,7 +364,7 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -212,158 +372,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,194 +409,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -571,255 +418,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,58 +444,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1216,27 +785,27 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.1" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.1" style="2" customWidth="1"/>
+    <col min="1" max="2" width="11.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="2" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.4" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1270,12 +839,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1309,7 +878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1326,7 +895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1343,7 +912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1360,7 +929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1377,7 +946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1394,7 +963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1411,7 +980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1428,7 +997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1445,7 +1014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1458,785 +1027,1082 @@
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="2">
+        <v>104</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="2">
+        <v>105</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="12"/>
+      <c r="E29" s="9"/>
+      <c r="I29" s="2">
+        <v>106</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" s="12"/>
+      <c r="E30" s="9"/>
+      <c r="I30" s="2">
+        <v>201</v>
+      </c>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="D31" s="12"/>
+      <c r="E31" s="9"/>
+      <c r="I31" s="2">
+        <v>202</v>
+      </c>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="I32" s="2">
+        <v>203</v>
+      </c>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
-      <c r="D33"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="I33" s="2">
+        <v>204</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="I34" s="2">
+        <v>205</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
-      <c r="D35"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="I35" s="2">
+        <v>206</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
-      <c r="D36"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="I36" s="2">
+        <v>301</v>
+      </c>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="I37" s="2">
+        <v>302</v>
+      </c>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="I38" s="2">
+        <v>303</v>
+      </c>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
-      <c r="D39"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="I39" s="2">
+        <v>304</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
-      <c r="D40"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="I40" s="2">
+        <v>305</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
-      <c r="D41"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="I41" s="2">
+        <v>306</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="I42" s="2">
+        <v>401</v>
+      </c>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="I43" s="2">
+        <v>402</v>
+      </c>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
-      <c r="D44"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="I44" s="2">
+        <v>403</v>
+      </c>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
-      <c r="D45"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="I45" s="2">
+        <v>404</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
-      <c r="D46"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="I46" s="2">
+        <v>405</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
-      <c r="D47"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="I47" s="2">
+        <v>406</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
-      <c r="D48"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="I48" s="2"/>
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="I49" s="2"/>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="I50" s="2"/>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="I51" s="2"/>
+      <c r="J51" s="13"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="I52" s="2"/>
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="I53" s="2"/>
+      <c r="J53" s="13"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="I54" s="2"/>
+      <c r="J54" s="11"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="I55" s="2">
+        <v>702</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="I56" s="2"/>
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62" s="5"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93" s="7"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104" s="5"/>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107" s="7"/>
     </row>
-    <row r="108" spans="4:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="4:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="4:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="4:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="4:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="4:5">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="4:5">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="4:5">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="4:5">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="4:5">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="4:5">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="4:5">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="4:5">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="4:5">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="4:5">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="4:5">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="4:5">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="4:5">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="4:5">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="4:5">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="4:5">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="4:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="4:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="4:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="4:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D132" s="8"/>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="4:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D133" s="8"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="4:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D134" s="8"/>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="4:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D135" s="8"/>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="4:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D136" s="8"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="4:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D137" s="8"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="4:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D138" s="8"/>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="4:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D139" s="8"/>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>703</v>
       </c>
@@ -2248,8 +2114,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2258,17 +2125,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,7 +2146,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -2306,7 +2172,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -2333,8 +2199,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26775" windowHeight="8070" tabRatio="204"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="8070" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TItem" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>Id</t>
   </si>
@@ -123,7 +123,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>TableName: "ItemBaseData</t>
     </r>
@@ -131,7 +131,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     </r>
@@ -183,19 +183,153 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>草莓裙子碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星裙子碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水手蓝裙碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓红裙碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色长发碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色长发碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色长发碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色长发碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色皮鞋碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色帆布碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色皮鞋碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色皮鞋碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色短裙碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色短裤碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆套装碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱套装碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于厨房，卫生间升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用于女仆升级 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>口红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于草莓裙子合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于星星裙子合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于草莓红裙合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于水手蓝裙合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于红色长发合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于黄色长发合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于紫色长发合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于蓝色长发合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于红色皮鞋合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于白色帆布合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于黑色皮鞋合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于蓝色皮鞋合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于粉色短裙合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于蓝色短裤合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于女仆套装合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于可爱套装合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -204,7 +338,7 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -212,158 +346,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,194 +370,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -571,255 +379,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,58 +405,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1216,27 +742,27 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.1" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.1" style="2" customWidth="1"/>
+    <col min="1" max="2" width="11.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="2" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.4" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1270,12 +796,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1309,7 +835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1326,7 +852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1343,7 +869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1360,7 +886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1377,7 +903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1394,7 +920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1411,7 +937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1428,7 +954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1445,7 +971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1458,785 +984,978 @@
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
       <c r="D32"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
       <c r="D33"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
       <c r="D34"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62" s="5"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93" s="7"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104" s="5"/>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107" s="7"/>
     </row>
-    <row r="108" spans="4:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="4:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="4:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="4:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="4:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="4:5">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="4:5">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="4:5">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="4:5">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="4:5">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="4:5">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="4:5">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="4:5">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="4:5">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="4:5">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="4:5">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="4:5">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="4:5">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="4:5">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="4:5">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="4:5">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="4:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="4:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="4:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="4:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D132" s="8"/>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="4:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D133" s="8"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="4:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D134" s="8"/>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="4:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D135" s="8"/>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="4:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D136" s="8"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="4:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D137" s="8"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="4:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D138" s="8"/>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="4:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D139" s="8"/>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>703</v>
       </c>
@@ -2248,8 +1967,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2258,17 +1978,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,7 +1999,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -2306,7 +2025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -2333,8 +2052,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>Id</t>
   </si>
@@ -298,6 +298,10 @@
   </si>
   <si>
     <t>用于樱碎片合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +749,7 @@
   <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -786,8 +790,8 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="E2" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -245,10 +245,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>少女鞋(红)碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用于少女红发合成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -289,10 +285,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用于少女鞋(红)合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用于少女鞋(蓝)合成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -302,6 +294,14 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女鞋(黑)碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于少女鞋(黑)合成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +749,7 @@
   <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -791,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>65</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="9"/>
@@ -1036,7 +1036,7 @@
         <v>54</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="9"/>
@@ -1055,7 +1055,7 @@
         <v>55</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="9"/>
@@ -1074,7 +1074,7 @@
         <v>56</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="9"/>
@@ -1093,7 +1093,7 @@
         <v>57</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="9"/>
@@ -1112,7 +1112,7 @@
         <v>58</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="9"/>
@@ -1131,7 +1131,7 @@
         <v>59</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="9"/>
@@ -1150,7 +1150,7 @@
         <v>60</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="9"/>
@@ -1169,7 +1169,7 @@
         <v>61</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="9"/>
@@ -1188,7 +1188,7 @@
         <v>62</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="9"/>
@@ -1203,11 +1203,11 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>77</v>
+      <c r="D26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="9"/>
@@ -1226,7 +1226,7 @@
         <v>63</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="9"/>
@@ -1245,7 +1245,7 @@
         <v>64</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="9"/>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -44,9 +44,6 @@
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
   <si>
-    <t>道具ID</t>
-  </si>
-  <si>
     <t>道具类型</t>
   </si>
   <si>
@@ -302,6 +299,68 @@
   </si>
   <si>
     <t>用于少女鞋(黑)合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规则：类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>x10000+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自然递增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -749,12 +808,13 @@
   <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.09765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.09765625" style="2" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.3984375" customWidth="1"/>
@@ -791,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -800,20 +860,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -827,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -844,10 +904,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -861,10 +921,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -878,10 +938,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -895,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -912,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -929,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -946,10 +1006,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -963,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -980,10 +1040,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -997,255 +1057,255 @@
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>12</v>
+        <v>20001</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>13</v>
+        <v>20002</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>14</v>
+        <v>20003</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>15</v>
+        <v>20004</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>16</v>
+        <v>20005</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>17</v>
+        <v>20006</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>18</v>
+        <v>20007</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>19</v>
+        <v>20008</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>20</v>
+        <v>20009</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>21</v>
+        <v>20010</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>22</v>
+        <v>20011</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>23</v>
+        <v>20012</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>24</v>
+        <v>20013</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="9"/>
@@ -1992,10 +2052,10 @@
         <v>703</v>
       </c>
       <c r="D140" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E140" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2021,7 +2081,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2033,54 +2093,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>Id</t>
   </si>
@@ -315,7 +315,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -361,6 +361,14 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -805,22 +813,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.3984375" customWidth="1"/>
+    <col min="3" max="4" width="14.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -831,13 +839,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -847,19 +858,22 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>80</v>
       </c>
@@ -869,14 +883,15 @@
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -886,14 +901,17 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5">
+        <v>10001</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -903,14 +921,17 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6">
+        <v>10002</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -920,14 +941,17 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7">
+        <v>10003</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -937,14 +961,17 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8">
+        <v>10004</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -954,14 +981,17 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9">
+        <v>10005</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -971,14 +1001,17 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10">
+        <v>10006</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -988,14 +1021,17 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11">
+        <v>10007</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1005,14 +1041,17 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12">
+        <v>10008</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1022,14 +1061,17 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13">
+        <v>10009</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1039,14 +1081,17 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14">
+        <v>10010</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1056,14 +1101,17 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15">
+        <v>10011</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20001</v>
       </c>
@@ -1073,16 +1121,19 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16">
+        <v>20001</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="2"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20002</v>
       </c>
@@ -1092,16 +1143,19 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17">
+        <v>20002</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="2"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20003</v>
       </c>
@@ -1111,16 +1165,19 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18">
+        <v>20003</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="2"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20004</v>
       </c>
@@ -1130,16 +1187,19 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19">
+        <v>20004</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="2"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20005</v>
       </c>
@@ -1149,16 +1209,19 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20">
+        <v>20005</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="2"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20006</v>
       </c>
@@ -1168,16 +1231,19 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21">
+        <v>20006</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="2"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20007</v>
       </c>
@@ -1187,16 +1253,19 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22">
+        <v>20007</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="2"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20008</v>
       </c>
@@ -1206,16 +1275,19 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23">
+        <v>20008</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="2"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20009</v>
       </c>
@@ -1225,16 +1297,19 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24">
+        <v>20009</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="2"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20010</v>
       </c>
@@ -1244,16 +1319,19 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25">
+        <v>20010</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="F25" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="2"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20011</v>
       </c>
@@ -1263,16 +1341,19 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26">
+        <v>20011</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="2"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20012</v>
       </c>
@@ -1282,16 +1363,19 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27">
+        <v>20012</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="2"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20013</v>
       </c>
@@ -1301,760 +1385,842 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28">
+        <v>20013</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="2"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="9"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D29"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="9"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="9"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D30"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="9"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="9"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D31"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="9"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="7"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D32"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="7"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="7"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D33"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="7"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="7"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D34"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="7"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="7"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D35"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="7"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="7"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D36"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="7"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="7"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D37"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="7"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="7"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D38"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="7"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="7"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D39"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="7"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="7"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D40"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="7"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="7"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D41"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="7"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="7"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="9"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D42"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="7"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="7"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D43"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="7"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="7"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D44"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="7"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="7"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="9"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D45"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="7"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="7"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="9"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D46"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="7"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="7"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D47"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="7"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="7"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="13"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D48"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="7"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
-      <c r="E49" s="7"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="13"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E49"/>
+      <c r="F49" s="7"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
-      <c r="E50" s="7"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="13"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E50"/>
+      <c r="F50" s="7"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
-      <c r="E51" s="7"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="13"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E51"/>
+      <c r="F51" s="7"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
-      <c r="E52" s="7"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="13"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E52"/>
+      <c r="F52" s="7"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
-      <c r="E53" s="7"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="13"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E53"/>
+      <c r="F53" s="7"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
-      <c r="E54" s="7"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E54"/>
+      <c r="F54" s="7"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
-      <c r="E55" s="7"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E55"/>
+      <c r="F55" s="7"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
-      <c r="E56" s="7"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="11"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E56"/>
+      <c r="F56" s="7"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="11"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E57"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E58"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E59"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E60"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E61"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D62"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E63"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E64"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E65"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E66"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E67"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E68"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E69"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E70"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E71"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E72"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E73"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E74"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E75"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E76"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E77"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E78"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E79"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E80"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E81"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E82"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E83"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
-      <c r="E84" s="7"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E84"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E85"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
-      <c r="E86" s="7"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E86"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
-      <c r="E87" s="7"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E87"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E88"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
-      <c r="E89" s="7"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E89"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E90"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
-      <c r="E91" s="7"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E91"/>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
-      <c r="E92" s="7"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E92"/>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
-      <c r="E93" s="7"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E93"/>
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
-      <c r="E94" s="7"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E94"/>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
-      <c r="E95" s="7"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E95"/>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
-      <c r="E96" s="7"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E96"/>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
-      <c r="E97" s="7"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E97"/>
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
-      <c r="E98" s="7"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E98"/>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
-      <c r="E99" s="7"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E99"/>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
-      <c r="E100" s="7"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E100"/>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
-      <c r="E101" s="7"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E101"/>
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
-      <c r="E102" s="7"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E102"/>
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
-      <c r="E103" s="7"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E103"/>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="7"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D104"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
-      <c r="E105" s="7"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E105"/>
+      <c r="F105" s="7"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
-      <c r="E106" s="7"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E106"/>
+      <c r="F106" s="7"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
-      <c r="E107" s="7"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D108" s="5"/>
+      <c r="E107"/>
+      <c r="F107" s="7"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E108" s="5"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D109" s="5"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E109" s="5"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D110" s="5"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E110" s="5"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D111" s="5"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E111" s="5"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D112" s="5"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E112" s="5"/>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D113" s="5"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E113" s="5"/>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D114" s="5"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E114" s="5"/>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D115" s="5"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E115" s="5"/>
-    </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D116" s="5"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E116" s="5"/>
-    </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D117" s="5"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E117" s="5"/>
-    </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D118" s="5"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E118" s="5"/>
-    </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D119" s="5"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E119" s="5"/>
-    </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D120" s="5"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E120" s="5"/>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D121" s="5"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E121" s="5"/>
-    </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D122" s="5"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E122" s="5"/>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D123" s="5"/>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E123" s="5"/>
-    </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D124" s="5"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E124" s="5"/>
-    </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D125" s="5"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E125" s="5"/>
-    </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D126" s="5"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E126" s="5"/>
-    </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D127" s="5"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E127" s="5"/>
-    </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D128" s="5"/>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E128" s="5"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D129" s="5"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E129" s="5"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D130" s="5"/>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E130" s="5"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D131" s="5"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E131" s="5"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D132" s="8"/>
-      <c r="E132" s="5"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D133" s="8"/>
-      <c r="E133" s="5"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D134" s="8"/>
-      <c r="E134" s="5"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D135" s="8"/>
-      <c r="E135" s="5"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D136" s="8"/>
-      <c r="E136" s="5"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D137" s="8"/>
-      <c r="E137" s="5"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D138" s="8"/>
-      <c r="E138" s="5"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D139" s="8"/>
-      <c r="E139" s="5"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E132" s="8"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E133" s="8"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E134" s="8"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E135" s="8"/>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E136" s="8"/>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E137" s="8"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E138" s="8"/>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E139" s="8"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>703</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="E140" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="F140" s="5" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -827,7 +827,7 @@
   <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1150,6 +1150,9 @@
       <c r="F16" s="9" t="s">
         <v>65</v>
       </c>
+      <c r="G16">
+        <v>104</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="9"/>
     </row>
@@ -1172,6 +1175,9 @@
       <c r="F17" s="9" t="s">
         <v>66</v>
       </c>
+      <c r="G17">
+        <v>105</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="9"/>
     </row>
@@ -1194,6 +1200,9 @@
       <c r="F18" s="9" t="s">
         <v>67</v>
       </c>
+      <c r="G18">
+        <v>106</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="9"/>
     </row>
@@ -1216,6 +1225,9 @@
       <c r="F19" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="G19">
+        <v>204</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="9"/>
     </row>
@@ -1238,6 +1250,9 @@
       <c r="F20" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="G20">
+        <v>205</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="9"/>
     </row>
@@ -1260,6 +1275,9 @@
       <c r="F21" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="G21">
+        <v>206</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="9"/>
     </row>
@@ -1282,6 +1300,9 @@
       <c r="F22" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="G22">
+        <v>304</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="9"/>
     </row>
@@ -1304,6 +1325,9 @@
       <c r="F23" s="9" t="s">
         <v>72</v>
       </c>
+      <c r="G23">
+        <v>305</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="9"/>
     </row>
@@ -1326,6 +1350,9 @@
       <c r="F24" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="G24">
+        <v>306</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="9"/>
     </row>
@@ -1348,6 +1375,9 @@
       <c r="F25" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="G25">
+        <v>404</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="9"/>
     </row>
@@ -1370,6 +1400,9 @@
       <c r="F26" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="G26">
+        <v>405</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="9"/>
     </row>
@@ -1392,6 +1425,9 @@
       <c r="F27" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="G27">
+        <v>406</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="9"/>
     </row>
@@ -1413,6 +1449,9 @@
       </c>
       <c r="F28" s="9" t="s">
         <v>76</v>
+      </c>
+      <c r="G28">
+        <v>702</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="9"/>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t>Id</t>
   </si>
@@ -369,6 +369,17 @@
   </si>
   <si>
     <t>ImageId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成时装</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +827,7 @@
   <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -847,6 +858,9 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -867,6 +881,9 @@
       <c r="F2" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -889,6 +906,9 @@
       </c>
       <c r="F4" t="s">
         <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -827,7 +827,7 @@
   <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -913,16 +913,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>120001</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>10001</v>
+        <v>120001</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
@@ -933,16 +933,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>120002</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>10002</v>
+        <v>120002</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>15</v>
@@ -953,16 +953,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>120003</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>10003</v>
+        <v>120003</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -973,16 +973,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4</v>
+        <v>120004</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>10004</v>
+        <v>120004</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -993,16 +993,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5</v>
+        <v>130001</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>10005</v>
+        <v>130001</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>20</v>
@@ -1013,16 +1013,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>6</v>
+        <v>130002</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>10006</v>
+        <v>130002</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
@@ -1033,16 +1033,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>7</v>
+        <v>130003</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>10007</v>
+        <v>130003</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>24</v>
@@ -1053,16 +1053,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>8</v>
+        <v>130004</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>10008</v>
+        <v>130004</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>26</v>
@@ -1073,16 +1073,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>9</v>
+        <v>130005</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>10009</v>
+        <v>130005</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>28</v>
@@ -1093,16 +1093,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>10</v>
+        <v>120005</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>10010</v>
+        <v>120005</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>30</v>
@@ -1113,16 +1113,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>11</v>
+        <v>140001</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>10011</v>
+        <v>140001</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>52</v>
@@ -1133,16 +1133,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>20001</v>
+        <v>110001</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>20001</v>
+        <v>110001</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>64</v>
@@ -1158,16 +1158,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>20002</v>
+        <v>110002</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>20002</v>
+        <v>110002</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>53</v>
@@ -1183,16 +1183,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>20003</v>
+        <v>110003</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>20003</v>
+        <v>110003</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>54</v>
@@ -1208,16 +1208,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>20004</v>
+        <v>110004</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>20004</v>
+        <v>110004</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>55</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>20005</v>
+        <v>110005</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>20005</v>
+        <v>110005</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>56</v>
@@ -1258,16 +1258,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20006</v>
+        <v>110006</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>20006</v>
+        <v>110006</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>57</v>
@@ -1283,16 +1283,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20007</v>
+        <v>110007</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>20007</v>
+        <v>110007</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>58</v>
@@ -1308,16 +1308,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>20008</v>
+        <v>110008</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>20008</v>
+        <v>110008</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>59</v>
@@ -1333,16 +1333,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>20009</v>
+        <v>110009</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>20009</v>
+        <v>110009</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>60</v>
@@ -1358,16 +1358,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>20010</v>
+        <v>110010</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>20010</v>
+        <v>110010</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>61</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>20011</v>
+        <v>110011</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>20011</v>
+        <v>110011</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>78</v>
@@ -1408,16 +1408,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>20012</v>
+        <v>110012</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>20012</v>
+        <v>110012</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>62</v>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>20013</v>
+        <v>110013</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>20013</v>
+        <v>110013</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>63</v>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="8070" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TItem" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>Id</t>
   </si>
@@ -26,12 +26,18 @@
     <t>Color</t>
   </si>
   <si>
+    <t>ImageId</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Desc</t>
   </si>
   <si>
+    <t>Clothes</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -42,271 +48,12 @@
   </si>
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
-  </si>
-  <si>
-    <t>道具类型</t>
-  </si>
-  <si>
-    <t>1白2绿3蓝4紫5橙</t>
-  </si>
-  <si>
-    <t>道具名</t>
-  </si>
-  <si>
-    <t>道具简介</t>
-  </si>
-  <si>
-    <t>乳胶漆</t>
-  </si>
-  <si>
-    <t>用于客厅，卧室升级</t>
-  </si>
-  <si>
-    <t>木地板</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瓷砖 </t>
-  </si>
-  <si>
-    <t>用于厨房，卫生间升级</t>
-  </si>
-  <si>
-    <t>房屋设计图纸</t>
-  </si>
-  <si>
-    <t>用于房屋升级</t>
-  </si>
-  <si>
-    <t>发动机零件</t>
-  </si>
-  <si>
-    <t>用于发动机升级</t>
-  </si>
-  <si>
-    <t>电瓶零件</t>
-  </si>
-  <si>
-    <t>用于电瓶升级</t>
-  </si>
-  <si>
-    <t>后备箱零件</t>
-  </si>
-  <si>
-    <t>用于后备箱升级</t>
-  </si>
-  <si>
-    <t>油箱零件</t>
-  </si>
-  <si>
-    <t>用于邮箱升级</t>
-  </si>
-  <si>
-    <t>轮胎零件</t>
-  </si>
-  <si>
-    <t>用于轮胎升级</t>
-  </si>
-  <si>
-    <t>吊顶</t>
-  </si>
-  <si>
-    <t>艾利欧</t>
-  </si>
-  <si>
-    <t>装备获得效果</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>TableName: "ItemBaseData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    </r>
-  </si>
-  <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>FieldType</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>对象类型</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>枚举值</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>特性</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>用于厨房，卫生间升级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">用于女仆升级 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲜花</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女紫发碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女蓝发碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星无袖碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色夹克碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色短袖碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛仔短裤碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉色短裙碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰色短裤碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白鞋碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女鞋(蓝)碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女红发碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于少女红发合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于少女紫发合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于少女蓝发合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于星星无袖合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于绿色夹克合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于蓝色短袖合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于牛仔短裤合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于粉色短裙合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于灰色短裤合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于小白鞋合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于少女鞋(蓝)合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于樱碎片合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女鞋(黑)碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于少女鞋(黑)合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>道具</t>
@@ -315,7 +62,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -323,7 +70,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -331,7 +78,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>规则：类型</t>
@@ -340,7 +86,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>x10000+</t>
     </r>
@@ -348,7 +94,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自然递增</t>
@@ -357,37 +102,248 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImageId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clothes</t>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>1白2绿3蓝4紫5橙</t>
+  </si>
+  <si>
+    <t>道具名</t>
+  </si>
+  <si>
+    <t>道具简介</t>
   </si>
   <si>
     <t>合成时装</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳胶漆</t>
+  </si>
+  <si>
+    <t>用于客厅，卧室升级</t>
+  </si>
+  <si>
+    <t>木地板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瓷砖 </t>
+  </si>
+  <si>
+    <t>用于厨房，卫生间升级</t>
+  </si>
+  <si>
+    <t>房屋设计图纸</t>
+  </si>
+  <si>
+    <t>用于房屋升级</t>
+  </si>
+  <si>
+    <t>发动机零件</t>
+  </si>
+  <si>
+    <t>用于发动机升级</t>
+  </si>
+  <si>
+    <t>电瓶零件</t>
+  </si>
+  <si>
+    <t>用于电瓶升级</t>
+  </si>
+  <si>
+    <t>后备箱零件</t>
+  </si>
+  <si>
+    <t>用于后备箱升级</t>
+  </si>
+  <si>
+    <t>油箱零件</t>
+  </si>
+  <si>
+    <t>用于邮箱升级</t>
+  </si>
+  <si>
+    <t>轮胎零件</t>
+  </si>
+  <si>
+    <t>用于轮胎升级</t>
+  </si>
+  <si>
+    <t>吊顶</t>
+  </si>
+  <si>
+    <t>鲜花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用于女仆升级 </t>
+  </si>
+  <si>
+    <t>少女红发碎片</t>
+  </si>
+  <si>
+    <t>用于少女红发合成</t>
+  </si>
+  <si>
+    <t>少女紫发碎片</t>
+  </si>
+  <si>
+    <t>用于少女紫发合成</t>
+  </si>
+  <si>
+    <t>少女蓝发碎片</t>
+  </si>
+  <si>
+    <t>用于少女蓝发合成</t>
+  </si>
+  <si>
+    <t>星星无袖碎片</t>
+  </si>
+  <si>
+    <t>用于星星无袖合成</t>
+  </si>
+  <si>
+    <t>绿色夹克碎片</t>
+  </si>
+  <si>
+    <t>用于绿色夹克合成</t>
+  </si>
+  <si>
+    <t>蓝色短袖碎片</t>
+  </si>
+  <si>
+    <t>用于蓝色短袖合成</t>
+  </si>
+  <si>
+    <t>牛仔短裤碎片</t>
+  </si>
+  <si>
+    <t>用于牛仔短裤合成</t>
+  </si>
+  <si>
+    <t>粉色短裙碎片</t>
+  </si>
+  <si>
+    <t>用于粉色短裙合成</t>
+  </si>
+  <si>
+    <t>灰色短裤碎片</t>
+  </si>
+  <si>
+    <t>用于灰色短裤合成</t>
+  </si>
+  <si>
+    <t>小白鞋碎片</t>
+  </si>
+  <si>
+    <t>用于小白鞋合成</t>
+  </si>
+  <si>
+    <t>少女鞋(黑)碎片</t>
+  </si>
+  <si>
+    <t>用于少女鞋(黑)合成</t>
+  </si>
+  <si>
+    <t>少女鞋(蓝)碎片</t>
+  </si>
+  <si>
+    <t>用于少女鞋(蓝)合成</t>
+  </si>
+  <si>
+    <t>樱碎片</t>
+  </si>
+  <si>
+    <t>用于樱碎片合成</t>
+  </si>
+  <si>
+    <t>艾利欧</t>
+  </si>
+  <si>
+    <t>装备获得效果</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TableName: "ItemBaseData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    </r>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>对象类型</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>注释</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -395,41 +351,168 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,8 +525,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -451,48 +720,330 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -818,28 +1369,28 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="14.09765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.1" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.1" style="2" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" customWidth="1"/>
+    <col min="6" max="6" width="23.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -850,73 +1401,73 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -925,18 +1476,18 @@
         <v>10001</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -945,18 +1496,18 @@
         <v>10002</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -965,18 +1516,18 @@
         <v>10003</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -985,18 +1536,18 @@
         <v>10004</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1005,18 +1556,18 @@
         <v>10005</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1025,18 +1576,18 @@
         <v>10006</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1045,18 +1596,18 @@
         <v>10007</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1065,18 +1616,18 @@
         <v>10008</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1085,18 +1636,18 @@
         <v>10009</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1105,18 +1656,18 @@
         <v>10010</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1124,19 +1675,19 @@
       <c r="D15">
         <v>10011</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>20001</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1144,24 +1695,24 @@
       <c r="D16">
         <v>20001</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>65</v>
+      <c r="E16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G16">
         <v>104</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>20002</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1169,24 +1720,24 @@
       <c r="D17">
         <v>20002</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>66</v>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G17">
         <v>105</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>20003</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1194,24 +1745,24 @@
       <c r="D18">
         <v>20003</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>67</v>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="G18">
         <v>106</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>20004</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1219,24 +1770,24 @@
       <c r="D19">
         <v>20004</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>68</v>
+      <c r="E19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="G19">
         <v>204</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>20005</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1244,24 +1795,24 @@
       <c r="D20">
         <v>20005</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>69</v>
+      <c r="E20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="G20">
         <v>205</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20006</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1269,24 +1820,24 @@
       <c r="D21">
         <v>20006</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>70</v>
+      <c r="E21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G21">
         <v>206</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>20007</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1294,24 +1845,24 @@
       <c r="D22">
         <v>20007</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>71</v>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G22">
         <v>304</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>20008</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1319,24 +1870,24 @@
       <c r="D23">
         <v>20008</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>72</v>
+      <c r="E23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="G23">
         <v>305</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>20009</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1344,24 +1895,24 @@
       <c r="D24">
         <v>20009</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>73</v>
+      <c r="E24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="G24">
         <v>306</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>20010</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1369,24 +1920,24 @@
       <c r="D25">
         <v>20010</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>74</v>
+      <c r="E25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="G25">
         <v>404</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>20011</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1395,23 +1946,23 @@
         <v>20011</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G26">
         <v>405</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>20012</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1419,24 +1970,24 @@
       <c r="D27">
         <v>20012</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>75</v>
+      <c r="E27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="G27">
         <v>406</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>20013</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1444,849 +1995,848 @@
       <c r="D28">
         <v>20013</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>76</v>
+      <c r="E28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="G28">
         <v>702</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="9"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="5"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="9"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="5"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="9"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="5"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="9"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="9"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="9"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="9"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="9"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="9"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="9"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="7"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="9"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="9"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="9"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="9"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="9"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="9"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="9"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="9"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="9"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="9"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="13"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="9"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="13"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="9"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="13"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="9"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="13"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="9"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="13"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="9"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="13"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="9"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="11"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="9"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="11"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="9"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="11"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78"/>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
-      <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83"/>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86"/>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89"/>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
-      <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94"/>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
-      <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
-      <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
-      <c r="F97" s="7"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F97" s="9"/>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
-      <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99"/>
-      <c r="F99" s="7"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
-      <c r="F100" s="7"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
-      <c r="F101" s="7"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
-      <c r="F102" s="7"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
-      <c r="F103" s="7"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="7"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
-      <c r="F105" s="7"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
-      <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F106" s="9"/>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
-      <c r="F107" s="7"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" spans="5:6">
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:6">
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:6">
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:6">
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:6">
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:6">
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:6">
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:6">
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:6">
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:6">
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:6">
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:6">
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:6">
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:6">
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:6">
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:6">
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:6">
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:6">
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:6">
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:6">
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:6">
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="5:6">
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:6">
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="5:6">
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E132" s="8"/>
+    <row r="132" spans="5:6">
+      <c r="E132" s="7"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E133" s="8"/>
+    <row r="133" spans="5:6">
+      <c r="E133" s="7"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E134" s="8"/>
+    <row r="134" spans="5:6">
+      <c r="E134" s="7"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E135" s="8"/>
+    <row r="135" spans="5:6">
+      <c r="E135" s="7"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E136" s="8"/>
+    <row r="136" spans="5:6">
+      <c r="E136" s="7"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E137" s="8"/>
+    <row r="137" spans="5:6">
+      <c r="E137" s="7"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E138" s="8"/>
+    <row r="138" spans="5:6">
+      <c r="E138" s="7"/>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E139" s="8"/>
+    <row r="139" spans="5:6">
+      <c r="E139" s="7"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140" s="2">
         <v>703</v>
       </c>
-      <c r="E140" s="8" t="s">
-        <v>31</v>
+      <c r="E140" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2295,18 +2845,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G4" sqref="G4:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2316,61 +2867,61 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="10350" tabRatio="204"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27735" windowHeight="10350" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TItem" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
   <si>
     <t>Id</t>
   </si>
@@ -62,7 +62,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -70,7 +70,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -86,7 +86,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>x10000+</t>
     </r>
@@ -102,7 +102,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -286,7 +286,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>TableName: "ItemBaseData</t>
     </r>
@@ -294,7 +294,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     </r>
@@ -346,19 +346,63 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>少女红发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女紫发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女蓝发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星无袖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色夹克</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色短袖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛仔短裤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色短裙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色短裤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白鞋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女鞋(黑)</t>
+  </si>
+  <si>
+    <t>少女鞋(蓝)</t>
+  </si>
+  <si>
+    <t>樱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -367,7 +411,7 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -381,158 +425,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,192 +457,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -740,255 +470,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,58 +497,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1386,29 +831,29 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.1" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.3" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.1" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.4" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1454,12 +899,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1480,7 +925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>120001</v>
       </c>
@@ -1500,7 +945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>120002</v>
       </c>
@@ -1520,7 +965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>120003</v>
       </c>
@@ -1540,7 +985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>120004</v>
       </c>
@@ -1560,7 +1005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>120005</v>
       </c>
@@ -1580,7 +1025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>130001</v>
       </c>
@@ -1600,7 +1045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>130002</v>
       </c>
@@ -1620,7 +1065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>130003</v>
       </c>
@@ -1640,7 +1085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>130004</v>
       </c>
@@ -1660,7 +1105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>130005</v>
       </c>
@@ -1680,7 +1125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>130006</v>
       </c>
@@ -1700,7 +1145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>130007</v>
       </c>
@@ -1720,7 +1165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>130008</v>
       </c>
@@ -1740,7 +1185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>130009</v>
       </c>
@@ -1760,7 +1205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>130010</v>
       </c>
@@ -1780,7 +1225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>130011</v>
       </c>
@@ -1800,7 +1245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>130012</v>
       </c>
@@ -1820,7 +1265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>130013</v>
       </c>
@@ -1840,7 +1285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>130014</v>
       </c>
@@ -1860,7 +1305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>130015</v>
       </c>
@@ -1880,7 +1325,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>130016</v>
       </c>
@@ -1900,7 +1345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>130017</v>
       </c>
@@ -1920,7 +1365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>130018</v>
       </c>
@@ -1940,7 +1385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>130019</v>
       </c>
@@ -1960,7 +1405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>130020</v>
       </c>
@@ -1980,7 +1425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>130021</v>
       </c>
@@ -2000,7 +1445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>130022</v>
       </c>
@@ -2020,7 +1465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>130023</v>
       </c>
@@ -2040,7 +1485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>130024</v>
       </c>
@@ -2060,7 +1505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>130025</v>
       </c>
@@ -2080,7 +1525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>140001</v>
       </c>
@@ -2100,7 +1545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>110001</v>
       </c>
@@ -2120,12 +1565,12 @@
         <v>38</v>
       </c>
       <c r="G36">
-        <v>104</v>
+        <v>150001</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>110002</v>
       </c>
@@ -2145,12 +1590,12 @@
         <v>40</v>
       </c>
       <c r="G37">
-        <v>105</v>
+        <v>150002</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>110003</v>
       </c>
@@ -2170,12 +1615,12 @@
         <v>42</v>
       </c>
       <c r="G38">
-        <v>106</v>
+        <v>150003</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>110004</v>
       </c>
@@ -2195,12 +1640,12 @@
         <v>44</v>
       </c>
       <c r="G39">
-        <v>204</v>
+        <v>150004</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>110005</v>
       </c>
@@ -2220,12 +1665,12 @@
         <v>46</v>
       </c>
       <c r="G40">
-        <v>205</v>
+        <v>150005</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>110006</v>
       </c>
@@ -2245,12 +1690,12 @@
         <v>48</v>
       </c>
       <c r="G41">
-        <v>206</v>
+        <v>150006</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>110007</v>
       </c>
@@ -2270,12 +1715,12 @@
         <v>50</v>
       </c>
       <c r="G42">
-        <v>304</v>
+        <v>150007</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>110008</v>
       </c>
@@ -2295,12 +1740,12 @@
         <v>52</v>
       </c>
       <c r="G43">
-        <v>305</v>
+        <v>150008</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>110009</v>
       </c>
@@ -2320,12 +1765,12 @@
         <v>54</v>
       </c>
       <c r="G44">
-        <v>306</v>
+        <v>150009</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>110010</v>
       </c>
@@ -2345,12 +1790,12 @@
         <v>56</v>
       </c>
       <c r="G45">
-        <v>404</v>
+        <v>150010</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>110011</v>
       </c>
@@ -2370,12 +1815,12 @@
         <v>58</v>
       </c>
       <c r="G46">
-        <v>405</v>
+        <v>150011</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>110012</v>
       </c>
@@ -2395,12 +1840,12 @@
         <v>60</v>
       </c>
       <c r="G47">
-        <v>406</v>
+        <v>150012</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>110013</v>
       </c>
@@ -2420,19 +1865,21 @@
         <v>62</v>
       </c>
       <c r="G48">
-        <v>702</v>
+        <v>150013</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>60001</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
-      <c r="C49"/>
+      <c r="C49">
+        <v>1</v>
+      </c>
       <c r="D49">
         <v>6001</v>
       </c>
@@ -2443,14 +1890,16 @@
       <c r="J49" s="2"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>60002</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
-      <c r="C50"/>
+      <c r="C50">
+        <v>1</v>
+      </c>
       <c r="D50">
         <v>6002</v>
       </c>
@@ -2461,14 +1910,16 @@
       <c r="J50" s="2"/>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>60003</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
-      <c r="C51"/>
+      <c r="C51">
+        <v>1</v>
+      </c>
       <c r="D51">
         <v>6003</v>
       </c>
@@ -2479,14 +1930,16 @@
       <c r="J51" s="2"/>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>60004</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
-      <c r="C52"/>
+      <c r="C52">
+        <v>1</v>
+      </c>
       <c r="D52">
         <v>6004</v>
       </c>
@@ -2497,14 +1950,16 @@
       <c r="J52" s="2"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>60005</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
-      <c r="C53"/>
+      <c r="C53">
+        <v>1</v>
+      </c>
       <c r="D53">
         <v>6005</v>
       </c>
@@ -2515,137 +1970,267 @@
       <c r="J53" s="2"/>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54" s="5"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>150001</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>150001</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="F54" s="8"/>
       <c r="J54" s="2"/>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55" s="5"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>150002</v>
+      </c>
+      <c r="B55">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>150002</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="F55" s="8"/>
       <c r="J55" s="2"/>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56" s="5"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>150003</v>
+      </c>
+      <c r="B56">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>150003</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="F56" s="8"/>
       <c r="J56" s="2"/>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57" s="5"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>150004</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>150004</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="F57" s="8"/>
       <c r="J57" s="2"/>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58" s="5"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>150005</v>
+      </c>
+      <c r="B58">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>150005</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F58" s="8"/>
       <c r="J58" s="2"/>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59" s="5"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>150006</v>
+      </c>
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>150006</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="F59" s="8"/>
       <c r="J59" s="2"/>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60" s="7"/>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>150007</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>150007</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="F60" s="8"/>
       <c r="J60" s="2"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61" s="7"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>150008</v>
+      </c>
+      <c r="B61">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>150008</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="F61" s="8"/>
       <c r="J61" s="2"/>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62" s="7"/>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>150009</v>
+      </c>
+      <c r="B62">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>150009</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="F62" s="8"/>
       <c r="J62" s="2"/>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63" s="7"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>150010</v>
+      </c>
+      <c r="B63">
+        <v>15</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>150010</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="F63" s="8"/>
       <c r="J63" s="2"/>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64" s="7"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>150011</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>150011</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="F64" s="8"/>
       <c r="J64" s="2"/>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65" s="7"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>150012</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>150012</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="F65" s="8"/>
       <c r="J65" s="2"/>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66" s="7"/>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>150013</v>
+      </c>
+      <c r="B66">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>150013</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="F66" s="8"/>
       <c r="J66" s="2"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -2655,7 +2240,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -2665,7 +2250,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -2675,7 +2260,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -2685,7 +2270,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="9"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -2695,7 +2280,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="9"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -2705,7 +2290,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -2715,7 +2300,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="9"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -2725,7 +2310,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="7"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -2735,7 +2320,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="7"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -2745,7 +2330,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="7"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -2753,7 +2338,7 @@
       <c r="E77"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -2761,7 +2346,7 @@
       <c r="E78"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -2769,7 +2354,7 @@
       <c r="E79"/>
       <c r="F79" s="8"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -2777,7 +2362,7 @@
       <c r="E80"/>
       <c r="F80" s="8"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -2785,7 +2370,7 @@
       <c r="E81"/>
       <c r="F81" s="8"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -2793,7 +2378,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="8"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -2801,7 +2386,7 @@
       <c r="E83"/>
       <c r="F83" s="8"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -2809,7 +2394,7 @@
       <c r="E84"/>
       <c r="F84" s="8"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -2817,7 +2402,7 @@
       <c r="E85"/>
       <c r="F85" s="8"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -2825,7 +2410,7 @@
       <c r="E86"/>
       <c r="F86" s="8"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -2833,7 +2418,7 @@
       <c r="E87"/>
       <c r="F87" s="8"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -2841,7 +2426,7 @@
       <c r="E88"/>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -2849,7 +2434,7 @@
       <c r="E89"/>
       <c r="F89" s="8"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -2857,7 +2442,7 @@
       <c r="E90"/>
       <c r="F90" s="8"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -2865,7 +2450,7 @@
       <c r="E91"/>
       <c r="F91" s="8"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -2873,7 +2458,7 @@
       <c r="E92"/>
       <c r="F92" s="8"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -2881,7 +2466,7 @@
       <c r="E93"/>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -2889,7 +2474,7 @@
       <c r="E94"/>
       <c r="F94" s="8"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -2897,7 +2482,7 @@
       <c r="E95"/>
       <c r="F95" s="8"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -2905,7 +2490,7 @@
       <c r="E96"/>
       <c r="F96" s="8"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -2913,7 +2498,7 @@
       <c r="E97"/>
       <c r="F97" s="8"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -2921,7 +2506,7 @@
       <c r="E98"/>
       <c r="F98" s="8"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -2929,7 +2514,7 @@
       <c r="E99"/>
       <c r="F99" s="8"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -2937,7 +2522,7 @@
       <c r="E100"/>
       <c r="F100" s="8"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -2945,7 +2530,7 @@
       <c r="E101"/>
       <c r="F101" s="8"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -2953,7 +2538,7 @@
       <c r="E102"/>
       <c r="F102" s="8"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -2961,7 +2546,7 @@
       <c r="E103"/>
       <c r="F103" s="8"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -2969,7 +2554,7 @@
       <c r="E104"/>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -2977,7 +2562,7 @@
       <c r="E105"/>
       <c r="F105" s="8"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -2985,7 +2570,7 @@
       <c r="E106"/>
       <c r="F106" s="8"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -2993,7 +2578,7 @@
       <c r="E107"/>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -3001,7 +2586,7 @@
       <c r="E108"/>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -3009,7 +2594,7 @@
       <c r="E109"/>
       <c r="F109" s="8"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -3017,7 +2602,7 @@
       <c r="E110"/>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -3025,7 +2610,7 @@
       <c r="E111"/>
       <c r="F111" s="8"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -3033,7 +2618,7 @@
       <c r="E112"/>
       <c r="F112" s="8"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -3041,7 +2626,7 @@
       <c r="E113"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -3049,7 +2634,7 @@
       <c r="E114"/>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -3057,7 +2642,7 @@
       <c r="E115"/>
       <c r="F115" s="8"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -3065,7 +2650,7 @@
       <c r="E116"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -3073,7 +2658,7 @@
       <c r="E117"/>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -3081,7 +2666,7 @@
       <c r="E118"/>
       <c r="F118" s="8"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -3089,7 +2674,7 @@
       <c r="E119"/>
       <c r="F119" s="8"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -3097,7 +2682,7 @@
       <c r="E120"/>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -3105,7 +2690,7 @@
       <c r="E121"/>
       <c r="F121" s="8"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -3113,7 +2698,7 @@
       <c r="E122"/>
       <c r="F122" s="8"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -3121,7 +2706,7 @@
       <c r="E123"/>
       <c r="F123" s="8"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -3129,7 +2714,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="8"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -3137,7 +2722,7 @@
       <c r="E125"/>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -3145,7 +2730,7 @@
       <c r="E126"/>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -3153,135 +2738,135 @@
       <c r="E127"/>
       <c r="F127" s="8"/>
     </row>
-    <row r="128" spans="5:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" spans="5:6">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="5:6">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="5:6">
+    <row r="131" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" spans="5:6">
+    <row r="132" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" spans="5:6">
+    <row r="133" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="5:6">
+    <row r="134" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="5:6">
+    <row r="135" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="5:6">
+    <row r="136" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="5:6">
+    <row r="137" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="5:6">
+    <row r="138" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" spans="5:6">
+    <row r="139" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" spans="5:6">
+    <row r="140" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="141" spans="5:6">
+    <row r="141" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="5:6">
+    <row r="142" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" spans="5:6">
+    <row r="143" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" spans="5:6">
+    <row r="144" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="5:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="5:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" spans="5:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="5:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="5:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" spans="5:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" spans="5:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" spans="5:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E152" s="7"/>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" spans="5:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E153" s="7"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" spans="5:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E154" s="7"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" spans="5:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E155" s="7"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="5:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E156" s="7"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="157" spans="5:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E157" s="7"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="5:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E158" s="7"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" spans="5:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E159" s="7"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>703</v>
       </c>
@@ -3293,7 +2878,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -3303,17 +2889,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -3325,7 +2910,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
@@ -3351,7 +2936,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -3378,8 +2963,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27735" windowHeight="10350" tabRatio="204"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27735" windowHeight="11895" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TItem" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <t>Id</t>
   </si>
@@ -396,6 +396,24 @@
   <si>
     <t>樱</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东e卡50元</t>
+  </si>
+  <si>
+    <t>实物50元京东卡</t>
+  </si>
+  <si>
+    <t>30元话费</t>
+  </si>
+  <si>
+    <t>提取直充30元电话卡</t>
+  </si>
+  <si>
+    <t>10元话费</t>
+  </si>
+  <si>
+    <t>提取直充10元电话卡</t>
   </si>
 </sst>
 </file>
@@ -839,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2231,32 +2249,68 @@
       <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8"/>
+      <c r="A67">
+        <v>20006</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>2006</v>
+      </c>
+      <c r="E67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="J67" s="2"/>
       <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
+      <c r="A68">
+        <v>50003</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>5003</v>
+      </c>
+      <c r="E68" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="J68" s="2"/>
       <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69" s="8"/>
+      <c r="A69">
+        <v>50004</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>5004</v>
+      </c>
+      <c r="E69" t="s">
+        <v>104</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="J69" s="2"/>
       <c r="K69" s="9"/>
     </row>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="TItem" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
+    <sheet name="#" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -414,6 +415,243 @@
   </si>
   <si>
     <t>提取直充10元电话卡</t>
+  </si>
+  <si>
+    <t>SubType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通道具</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数码产品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活用品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车用品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小商品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石道具</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房子配件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>车子配件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仆人配件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发动机</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电瓶</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后备箱</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮胎</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女仆升级</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头发</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上衣</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下身</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鞋子</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>套装</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -480,12 +718,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -494,7 +747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,6 +772,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -855,23 +1123,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" customWidth="1"/>
+    <col min="2" max="3" width="11.09765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -879,22 +1147,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -904,46 +1175,50 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>120001</v>
       </c>
@@ -951,19 +1226,22 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>120001</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>120002</v>
       </c>
@@ -971,19 +1249,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>120002</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>120003</v>
       </c>
@@ -991,19 +1272,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>120003</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>120004</v>
       </c>
@@ -1011,19 +1295,22 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>120004</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>120005</v>
       </c>
@@ -1031,19 +1318,22 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>120005</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>130001</v>
       </c>
@@ -1054,16 +1344,19 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>130001</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>130002</v>
       </c>
@@ -1071,19 +1364,22 @@
         <v>13</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>130002</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>130003</v>
       </c>
@@ -1091,19 +1387,22 @@
         <v>13</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>130003</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>130004</v>
       </c>
@@ -1111,19 +1410,22 @@
         <v>13</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>130004</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>130005</v>
       </c>
@@ -1131,19 +1433,22 @@
         <v>13</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>130005</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>130006</v>
       </c>
@@ -1151,19 +1456,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>130006</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>130007</v>
       </c>
@@ -1174,16 +1482,19 @@
         <v>2</v>
       </c>
       <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
         <v>130007</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>130008</v>
       </c>
@@ -1191,19 +1502,22 @@
         <v>13</v>
       </c>
       <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>130008</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>130009</v>
       </c>
@@ -1211,19 +1525,22 @@
         <v>13</v>
       </c>
       <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>130009</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>130010</v>
       </c>
@@ -1231,19 +1548,22 @@
         <v>13</v>
       </c>
       <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
         <v>5</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>130010</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>130011</v>
       </c>
@@ -1251,19 +1571,22 @@
         <v>13</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>130011</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>130012</v>
       </c>
@@ -1271,19 +1594,22 @@
         <v>13</v>
       </c>
       <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>130012</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>130013</v>
       </c>
@@ -1294,16 +1620,19 @@
         <v>3</v>
       </c>
       <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
         <v>130013</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>130014</v>
       </c>
@@ -1311,19 +1640,22 @@
         <v>13</v>
       </c>
       <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>130014</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>130015</v>
       </c>
@@ -1331,19 +1663,22 @@
         <v>13</v>
       </c>
       <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>130015</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>130016</v>
       </c>
@@ -1351,19 +1686,22 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>130016</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>130017</v>
       </c>
@@ -1371,19 +1709,22 @@
         <v>13</v>
       </c>
       <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
         <v>2</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>130017</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>130018</v>
       </c>
@@ -1391,19 +1732,22 @@
         <v>13</v>
       </c>
       <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>130018</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>130019</v>
       </c>
@@ -1414,16 +1758,19 @@
         <v>4</v>
       </c>
       <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
         <v>130019</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>130020</v>
       </c>
@@ -1431,19 +1778,22 @@
         <v>13</v>
       </c>
       <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>130020</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>130021</v>
       </c>
@@ -1451,19 +1801,22 @@
         <v>13</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>130021</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>130022</v>
       </c>
@@ -1471,19 +1824,22 @@
         <v>13</v>
       </c>
       <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
         <v>2</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>130022</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>130023</v>
       </c>
@@ -1491,19 +1847,22 @@
         <v>13</v>
       </c>
       <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>130023</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>130024</v>
       </c>
@@ -1511,19 +1870,22 @@
         <v>13</v>
       </c>
       <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>130024</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>130025</v>
       </c>
@@ -1534,16 +1896,19 @@
         <v>5</v>
       </c>
       <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
         <v>130025</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>140001</v>
       </c>
@@ -1554,16 +1919,19 @@
         <v>1</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>140001</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>110001</v>
       </c>
@@ -1571,24 +1939,27 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>110001</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>150001</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K36" s="2"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>110002</v>
       </c>
@@ -1596,24 +1967,27 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>110002</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>150002</v>
       </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K37" s="2"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>110003</v>
       </c>
@@ -1621,24 +1995,27 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>110003</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>150003</v>
       </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>110004</v>
       </c>
@@ -1646,24 +2023,27 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
         <v>110004</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>150004</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K39" s="2"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>110005</v>
       </c>
@@ -1671,24 +2051,27 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>110005</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>150005</v>
       </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K40" s="2"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>110006</v>
       </c>
@@ -1696,24 +2079,27 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>110006</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>150006</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="2"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>110007</v>
       </c>
@@ -1721,24 +2107,27 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>110007</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>150007</v>
       </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="2"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>110008</v>
       </c>
@@ -1746,24 +2135,27 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
         <v>110008</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>150008</v>
       </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="2"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>110009</v>
       </c>
@@ -1771,24 +2163,27 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
         <v>110009</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>150009</v>
       </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="2"/>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>110010</v>
       </c>
@@ -1796,24 +2191,27 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
         <v>110010</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>150010</v>
       </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="2"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>110011</v>
       </c>
@@ -1821,24 +2219,27 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
         <v>110011</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>150011</v>
       </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="2"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>110012</v>
       </c>
@@ -1846,24 +2247,27 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
         <v>110012</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>150012</v>
       </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="2"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>110013</v>
       </c>
@@ -1871,24 +2275,27 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
         <v>110013</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>150013</v>
       </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="2"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>60001</v>
       </c>
@@ -1896,19 +2303,22 @@
         <v>6</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <v>6001</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="5"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G49" s="5"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>60002</v>
       </c>
@@ -1916,19 +2326,22 @@
         <v>6</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
         <v>6002</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="5"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G50" s="5"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>60003</v>
       </c>
@@ -1936,19 +2349,22 @@
         <v>6</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
         <v>6003</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G51" s="5"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>60004</v>
       </c>
@@ -1956,19 +2372,22 @@
         <v>6</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
         <v>6004</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G52" s="8"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>60005</v>
       </c>
@@ -1976,19 +2395,22 @@
         <v>6</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>6005</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G53" s="8"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>150001</v>
       </c>
@@ -1996,19 +2418,22 @@
         <v>15</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>150001</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G54" s="8"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>150002</v>
       </c>
@@ -2016,19 +2441,22 @@
         <v>15</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
         <v>150002</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="F55" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G55" s="8"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>150003</v>
       </c>
@@ -2036,19 +2464,22 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
         <v>150003</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="5"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G56" s="8"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>150004</v>
       </c>
@@ -2056,19 +2487,22 @@
         <v>15</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
         <v>150004</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="5"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G57" s="8"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>150005</v>
       </c>
@@ -2076,19 +2510,22 @@
         <v>15</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
         <v>150005</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="F58" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="5"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G58" s="8"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>150006</v>
       </c>
@@ -2096,19 +2533,22 @@
         <v>15</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
         <v>150006</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="F59" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="5"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G59" s="8"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>150007</v>
       </c>
@@ -2116,19 +2556,22 @@
         <v>15</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
         <v>150007</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G60" s="8"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>150008</v>
       </c>
@@ -2136,19 +2579,22 @@
         <v>15</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
         <v>150008</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="F61" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G61" s="8"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>150009</v>
       </c>
@@ -2156,19 +2602,22 @@
         <v>15</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
         <v>150009</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="F62" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="5"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G62" s="8"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>150010</v>
       </c>
@@ -2176,19 +2625,22 @@
         <v>15</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
         <v>150010</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="F63" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="5"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G63" s="8"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>150011</v>
       </c>
@@ -2196,19 +2648,22 @@
         <v>15</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
         <v>150011</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="F64" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="5"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G64" s="8"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>150012</v>
       </c>
@@ -2216,19 +2671,22 @@
         <v>15</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
         <v>150012</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="F65" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="5"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G65" s="8"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>150013</v>
       </c>
@@ -2236,19 +2694,22 @@
         <v>15</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
         <v>150013</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="F66" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F66" s="8"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="5"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G66" s="8"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>20006</v>
       </c>
@@ -2256,21 +2717,24 @@
         <v>2</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
         <v>2006</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>100</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="G67" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J67" s="2"/>
-      <c r="K67" s="5"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K67" s="2"/>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>50003</v>
       </c>
@@ -2278,21 +2742,24 @@
         <v>5</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
         <v>5003</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>102</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="G68" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J68" s="2"/>
-      <c r="K68" s="9"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="2"/>
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>50004</v>
       </c>
@@ -2300,634 +2767,695 @@
         <v>5</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
         <v>5004</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>104</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="G69" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="9"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="2"/>
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
-      <c r="F70" s="8"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="9"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F70"/>
+      <c r="G70" s="8"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71" s="8"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="9"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F71"/>
+      <c r="G71" s="8"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
-      <c r="F72" s="8"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="9"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F72"/>
+      <c r="G72" s="8"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
-      <c r="F73" s="8"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="9"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F73"/>
+      <c r="G73" s="8"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
-      <c r="F74" s="8"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="7"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F74"/>
+      <c r="G74" s="8"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="7"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
-      <c r="F75" s="8"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="7"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F75"/>
+      <c r="G75" s="8"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="7"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
-      <c r="F76" s="8"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="7"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F76"/>
+      <c r="G76" s="8"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
-      <c r="F77" s="8"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F77"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78"/>
-      <c r="F78" s="8"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F78"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
-      <c r="F79" s="8"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F79"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
-      <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F80"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
-      <c r="F81" s="8"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F81"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E82"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83"/>
-      <c r="F83" s="8"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F83"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
-      <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F84"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
-      <c r="F85" s="8"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F85"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86"/>
-      <c r="F86" s="8"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F86"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
-      <c r="F87" s="8"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F87"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
-      <c r="F88" s="8"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F88"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89"/>
-      <c r="F89" s="8"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F89"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="F90" s="8"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F90"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
-      <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F91"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
-      <c r="F92" s="8"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F92"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
-      <c r="F93" s="8"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F93"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94"/>
-      <c r="F94" s="8"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F94"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
-      <c r="F95" s="8"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F95"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
-      <c r="F96" s="8"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F96"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
-      <c r="F97" s="8"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F97"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
-      <c r="F98" s="8"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F98"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99"/>
-      <c r="F99" s="8"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F99"/>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
-      <c r="F100" s="8"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F100"/>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
-      <c r="F101" s="8"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F101"/>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
-      <c r="F102" s="8"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F102"/>
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
-      <c r="F103" s="8"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F103"/>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
-      <c r="F104" s="8"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F104"/>
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
-      <c r="F105" s="8"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F105"/>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
-      <c r="F106" s="8"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F106"/>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
-      <c r="F107" s="8"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F107"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
-      <c r="F108" s="8"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F108"/>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
-      <c r="F109" s="8"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F109"/>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110"/>
-      <c r="F110" s="8"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F110"/>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
-      <c r="F111" s="8"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F111"/>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
-      <c r="F112" s="8"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F112"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
-      <c r="F113" s="8"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F113"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
-      <c r="F114" s="8"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F114"/>
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
-      <c r="F115" s="8"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F115"/>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
-      <c r="F116" s="8"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F116"/>
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
-      <c r="F117" s="8"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F117"/>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118"/>
-      <c r="F118" s="8"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F118"/>
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119"/>
-      <c r="F119" s="8"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F119"/>
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120"/>
-      <c r="F120" s="8"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F120"/>
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121"/>
-      <c r="F121" s="8"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F121"/>
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="E122"/>
-      <c r="F122" s="8"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F122"/>
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
-      <c r="F123" s="8"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F123"/>
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="8"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E124"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
-      <c r="F125" s="8"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F125"/>
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
-      <c r="F126" s="8"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F126"/>
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
-      <c r="F127" s="8"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E128" s="5"/>
+      <c r="F127"/>
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F128" s="5"/>
-    </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E129" s="5"/>
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F129" s="5"/>
-    </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E130" s="5"/>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F130" s="5"/>
-    </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E131" s="5"/>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F131" s="5"/>
-    </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E132" s="5"/>
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F132" s="5"/>
-    </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E133" s="5"/>
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E134" s="5"/>
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F134" s="5"/>
-    </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E135" s="5"/>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F135" s="5"/>
-    </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E136" s="5"/>
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F136" s="5"/>
-    </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E137" s="5"/>
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F137" s="5"/>
-    </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E138" s="5"/>
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F138" s="5"/>
-    </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E139" s="5"/>
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F139" s="5"/>
-    </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E140" s="5"/>
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F140" s="5"/>
-    </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E141" s="5"/>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F141" s="5"/>
-    </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E142" s="5"/>
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F142" s="5"/>
-    </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E143" s="5"/>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F143" s="5"/>
-    </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E144" s="5"/>
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F144" s="5"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E145" s="5"/>
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F145" s="5"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E146" s="5"/>
+      <c r="G145" s="5"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F146" s="5"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E147" s="5"/>
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F147" s="5"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E148" s="5"/>
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F148" s="5"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E149" s="5"/>
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F149" s="5"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E150" s="5"/>
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F150" s="5"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E151" s="5"/>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F151" s="5"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E152" s="7"/>
-      <c r="F152" s="5"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E153" s="7"/>
-      <c r="F153" s="5"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E154" s="7"/>
-      <c r="F154" s="5"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E155" s="7"/>
-      <c r="F155" s="5"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E156" s="7"/>
-      <c r="F156" s="5"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E157" s="7"/>
-      <c r="F157" s="5"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E158" s="7"/>
-      <c r="F158" s="5"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E159" s="7"/>
-      <c r="F159" s="5"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F152" s="7"/>
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F153" s="7"/>
+      <c r="G153" s="5"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F154" s="7"/>
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F155" s="7"/>
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F156" s="7"/>
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F157" s="7"/>
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F158" s="7"/>
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F159" s="7"/>
+      <c r="G159" s="5"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>703</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="F160" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="G160" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3021,4 +3549,186 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="D1" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -145,9 +145,6 @@
     <t>用于房屋升级</t>
   </si>
   <si>
-    <t>吊顶</t>
-  </si>
-  <si>
     <t>发动机零件</t>
   </si>
   <si>
@@ -651,6 +648,10 @@
       </rPr>
       <t>套装</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙头</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -775,9 +776,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -786,6 +784,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1147,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1327,7 +1328,7 @@
         <v>120005</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>21</v>
@@ -1350,10 +1351,10 @@
         <v>130001</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1373,10 +1374,10 @@
         <v>130002</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1396,10 +1397,10 @@
         <v>130003</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1419,10 +1420,10 @@
         <v>130004</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1442,10 +1443,10 @@
         <v>130005</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1465,10 +1466,10 @@
         <v>130006</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1488,10 +1489,10 @@
         <v>130007</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1511,10 +1512,10 @@
         <v>130008</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1534,10 +1535,10 @@
         <v>130009</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1557,10 +1558,10 @@
         <v>130010</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1580,10 +1581,10 @@
         <v>130011</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1603,10 +1604,10 @@
         <v>130012</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1626,10 +1627,10 @@
         <v>130013</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1649,10 +1650,10 @@
         <v>130014</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1672,10 +1673,10 @@
         <v>130015</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1695,10 +1696,10 @@
         <v>130016</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1718,10 +1719,10 @@
         <v>130017</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1741,10 +1742,10 @@
         <v>130018</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1764,10 +1765,10 @@
         <v>130019</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1787,10 +1788,10 @@
         <v>130020</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1810,10 +1811,10 @@
         <v>130021</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1833,10 +1834,10 @@
         <v>130022</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1856,10 +1857,10 @@
         <v>130023</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1879,10 +1880,10 @@
         <v>130024</v>
       </c>
       <c r="F33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1902,10 +1903,10 @@
         <v>130025</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
@@ -1925,10 +1926,10 @@
         <v>140001</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1948,10 +1949,10 @@
         <v>110001</v>
       </c>
       <c r="F36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="H36">
         <v>150001</v>
@@ -1976,10 +1977,10 @@
         <v>110002</v>
       </c>
       <c r="F37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="H37">
         <v>150002</v>
@@ -2004,10 +2005,10 @@
         <v>110003</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="H38">
         <v>150003</v>
@@ -2032,10 +2033,10 @@
         <v>110004</v>
       </c>
       <c r="F39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="H39">
         <v>150004</v>
@@ -2060,10 +2061,10 @@
         <v>110005</v>
       </c>
       <c r="F40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="H40">
         <v>150005</v>
@@ -2088,10 +2089,10 @@
         <v>110006</v>
       </c>
       <c r="F41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="H41">
         <v>150006</v>
@@ -2116,10 +2117,10 @@
         <v>110007</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="H42">
         <v>150007</v>
@@ -2144,10 +2145,10 @@
         <v>110008</v>
       </c>
       <c r="F43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="H43">
         <v>150008</v>
@@ -2172,10 +2173,10 @@
         <v>110009</v>
       </c>
       <c r="F44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="H44">
         <v>150009</v>
@@ -2200,10 +2201,10 @@
         <v>110010</v>
       </c>
       <c r="F45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="H45">
         <v>150010</v>
@@ -2228,10 +2229,10 @@
         <v>110011</v>
       </c>
       <c r="F46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="H46">
         <v>150011</v>
@@ -2256,10 +2257,10 @@
         <v>110012</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="H47">
         <v>150012</v>
@@ -2284,10 +2285,10 @@
         <v>110013</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="H48">
         <v>150013</v>
@@ -2312,7 +2313,7 @@
         <v>6001</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="5"/>
       <c r="K49" s="2"/>
@@ -2335,7 +2336,7 @@
         <v>6002</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="5"/>
       <c r="K50" s="2"/>
@@ -2358,7 +2359,7 @@
         <v>6003</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" s="5"/>
       <c r="K51" s="2"/>
@@ -2381,7 +2382,7 @@
         <v>6004</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="8"/>
       <c r="K52" s="2"/>
@@ -2404,7 +2405,7 @@
         <v>6005</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G53" s="8"/>
       <c r="K53" s="2"/>
@@ -2427,7 +2428,7 @@
         <v>150001</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" s="8"/>
       <c r="K54" s="2"/>
@@ -2450,7 +2451,7 @@
         <v>150002</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G55" s="8"/>
       <c r="K55" s="2"/>
@@ -2473,7 +2474,7 @@
         <v>150003</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G56" s="8"/>
       <c r="K56" s="2"/>
@@ -2496,7 +2497,7 @@
         <v>150004</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G57" s="8"/>
       <c r="K57" s="2"/>
@@ -2519,7 +2520,7 @@
         <v>150005</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G58" s="8"/>
       <c r="K58" s="2"/>
@@ -2542,7 +2543,7 @@
         <v>150006</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="8"/>
       <c r="K59" s="2"/>
@@ -2565,7 +2566,7 @@
         <v>150007</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G60" s="8"/>
       <c r="K60" s="2"/>
@@ -2588,7 +2589,7 @@
         <v>150008</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G61" s="8"/>
       <c r="K61" s="2"/>
@@ -2611,7 +2612,7 @@
         <v>150009</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G62" s="8"/>
       <c r="K62" s="2"/>
@@ -2634,7 +2635,7 @@
         <v>150010</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G63" s="8"/>
       <c r="K63" s="2"/>
@@ -2657,7 +2658,7 @@
         <v>150011</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G64" s="8"/>
       <c r="K64" s="2"/>
@@ -2680,7 +2681,7 @@
         <v>150012</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G65" s="8"/>
       <c r="K65" s="2"/>
@@ -2703,7 +2704,7 @@
         <v>150013</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G66" s="8"/>
       <c r="K66" s="2"/>
@@ -2726,10 +2727,10 @@
         <v>2006</v>
       </c>
       <c r="F67" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="5"/>
@@ -2751,10 +2752,10 @@
         <v>5003</v>
       </c>
       <c r="F68" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="9"/>
@@ -2776,10 +2777,10 @@
         <v>5004</v>
       </c>
       <c r="F69" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="9"/>
@@ -3453,10 +3454,10 @@
         <v>703</v>
       </c>
       <c r="F160" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G160" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3482,7 +3483,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3494,54 +3495,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3562,165 +3563,165 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="D1" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="12" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
-        <v>7</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
-        <v>9</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
-        <v>10</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
-        <v>11</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
-        <v>13</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="E15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="D16" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>14</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="I16" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="141">
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Color</t>
@@ -652,6 +649,34 @@
   </si>
   <si>
     <t>龙头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeDes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>车子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆碎片</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1126,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1140,86 +1165,95 @@
     <col min="7" max="7" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>120001</v>
       </c>
@@ -1236,13 +1270,16 @@
         <v>120001</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>120002</v>
       </c>
@@ -1259,13 +1296,16 @@
         <v>120002</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>120003</v>
       </c>
@@ -1282,13 +1322,16 @@
         <v>120003</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>120004</v>
       </c>
@@ -1305,13 +1348,16 @@
         <v>120004</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>120005</v>
       </c>
@@ -1328,13 +1374,16 @@
         <v>120005</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>130001</v>
       </c>
@@ -1351,13 +1400,16 @@
         <v>130001</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>130002</v>
       </c>
@@ -1374,13 +1426,16 @@
         <v>130002</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>130003</v>
       </c>
@@ -1397,13 +1452,16 @@
         <v>130003</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>130004</v>
       </c>
@@ -1420,13 +1478,16 @@
         <v>130004</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>130005</v>
       </c>
@@ -1443,13 +1504,16 @@
         <v>130005</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>130006</v>
       </c>
@@ -1466,13 +1530,16 @@
         <v>130006</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>130007</v>
       </c>
@@ -1489,13 +1556,16 @@
         <v>130007</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>130008</v>
       </c>
@@ -1512,13 +1582,16 @@
         <v>130008</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>130009</v>
       </c>
@@ -1535,13 +1608,16 @@
         <v>130009</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I18" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>130010</v>
       </c>
@@ -1558,13 +1634,16 @@
         <v>130010</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I19" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>130011</v>
       </c>
@@ -1581,13 +1660,16 @@
         <v>130011</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>130012</v>
       </c>
@@ -1604,13 +1686,16 @@
         <v>130012</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I21" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>130013</v>
       </c>
@@ -1627,13 +1712,16 @@
         <v>130013</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I22" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>130014</v>
       </c>
@@ -1650,13 +1738,16 @@
         <v>130014</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I23" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>130015</v>
       </c>
@@ -1673,13 +1764,16 @@
         <v>130015</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I24" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>130016</v>
       </c>
@@ -1696,13 +1790,16 @@
         <v>130016</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I25" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>130017</v>
       </c>
@@ -1719,13 +1816,16 @@
         <v>130017</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I26" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>130018</v>
       </c>
@@ -1742,13 +1842,16 @@
         <v>130018</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I27" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>130019</v>
       </c>
@@ -1765,13 +1868,16 @@
         <v>130019</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I28" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>130020</v>
       </c>
@@ -1788,13 +1894,16 @@
         <v>130020</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I29" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>130021</v>
       </c>
@@ -1811,13 +1920,16 @@
         <v>130021</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I30" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>130022</v>
       </c>
@@ -1834,13 +1946,16 @@
         <v>130022</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I31" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>130023</v>
       </c>
@@ -1857,10 +1972,13 @@
         <v>130023</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>33</v>
+      <c r="I32" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1880,10 +1998,13 @@
         <v>130024</v>
       </c>
       <c r="F33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>33</v>
+      <c r="I33" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1903,10 +2024,13 @@
         <v>130025</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>33</v>
+      <c r="I34" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
@@ -1926,10 +2050,13 @@
         <v>140001</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>35</v>
+      <c r="I35" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1949,13 +2076,16 @@
         <v>110001</v>
       </c>
       <c r="F36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="H36">
         <v>150001</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="5"/>
@@ -1977,13 +2107,16 @@
         <v>110002</v>
       </c>
       <c r="F37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="H37">
         <v>150002</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="5"/>
@@ -2005,13 +2138,16 @@
         <v>110003</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="H38">
         <v>150003</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="5"/>
@@ -2033,13 +2169,16 @@
         <v>110004</v>
       </c>
       <c r="F39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="H39">
         <v>150004</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="5"/>
@@ -2061,13 +2200,16 @@
         <v>110005</v>
       </c>
       <c r="F40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="H40">
         <v>150005</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="5"/>
@@ -2089,13 +2231,16 @@
         <v>110006</v>
       </c>
       <c r="F41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="H41">
         <v>150006</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="5"/>
@@ -2117,13 +2262,16 @@
         <v>110007</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="H42">
         <v>150007</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="5"/>
@@ -2145,13 +2293,16 @@
         <v>110008</v>
       </c>
       <c r="F43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="H43">
         <v>150008</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="5"/>
@@ -2173,13 +2324,16 @@
         <v>110009</v>
       </c>
       <c r="F44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="H44">
         <v>150009</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="5"/>
@@ -2201,13 +2355,16 @@
         <v>110010</v>
       </c>
       <c r="F45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="H45">
         <v>150010</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="5"/>
@@ -2229,13 +2386,16 @@
         <v>110011</v>
       </c>
       <c r="F46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="H46">
         <v>150011</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="5"/>
@@ -2257,13 +2417,16 @@
         <v>110012</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="H47">
         <v>150012</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="5"/>
@@ -2285,13 +2448,16 @@
         <v>110013</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="H48">
         <v>150013</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="5"/>
@@ -2313,9 +2479,10 @@
         <v>6001</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G49" s="5"/>
+      <c r="I49" s="12"/>
       <c r="K49" s="2"/>
       <c r="L49" s="5"/>
     </row>
@@ -2336,9 +2503,10 @@
         <v>6002</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="5"/>
+      <c r="I50" s="12"/>
       <c r="K50" s="2"/>
       <c r="L50" s="5"/>
     </row>
@@ -2359,9 +2527,10 @@
         <v>6003</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="5"/>
+      <c r="I51" s="12"/>
       <c r="K51" s="2"/>
       <c r="L51" s="5"/>
     </row>
@@ -2382,7 +2551,7 @@
         <v>6004</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" s="8"/>
       <c r="K52" s="2"/>
@@ -2405,7 +2574,7 @@
         <v>6005</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="8"/>
       <c r="K53" s="2"/>
@@ -2428,7 +2597,7 @@
         <v>150001</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G54" s="8"/>
       <c r="K54" s="2"/>
@@ -2451,7 +2620,7 @@
         <v>150002</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G55" s="8"/>
       <c r="K55" s="2"/>
@@ -2474,7 +2643,7 @@
         <v>150003</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G56" s="8"/>
       <c r="K56" s="2"/>
@@ -2497,7 +2666,7 @@
         <v>150004</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G57" s="8"/>
       <c r="K57" s="2"/>
@@ -2520,7 +2689,7 @@
         <v>150005</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G58" s="8"/>
       <c r="K58" s="2"/>
@@ -2543,7 +2712,7 @@
         <v>150006</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G59" s="8"/>
       <c r="K59" s="2"/>
@@ -2566,7 +2735,7 @@
         <v>150007</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="8"/>
       <c r="K60" s="2"/>
@@ -2589,7 +2758,7 @@
         <v>150008</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G61" s="8"/>
       <c r="K61" s="2"/>
@@ -2612,7 +2781,7 @@
         <v>150009</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G62" s="8"/>
       <c r="K62" s="2"/>
@@ -2635,7 +2804,7 @@
         <v>150010</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G63" s="8"/>
       <c r="K63" s="2"/>
@@ -2658,7 +2827,7 @@
         <v>150011</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G64" s="8"/>
       <c r="K64" s="2"/>
@@ -2681,7 +2850,7 @@
         <v>150012</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G65" s="8"/>
       <c r="K65" s="2"/>
@@ -2704,7 +2873,7 @@
         <v>150013</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G66" s="8"/>
       <c r="K66" s="2"/>
@@ -2727,10 +2896,10 @@
         <v>2006</v>
       </c>
       <c r="F67" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="5"/>
@@ -2752,10 +2921,10 @@
         <v>5003</v>
       </c>
       <c r="F68" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="9"/>
@@ -2777,10 +2946,10 @@
         <v>5004</v>
       </c>
       <c r="F69" t="s">
+        <v>102</v>
+      </c>
+      <c r="G69" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="9"/>
@@ -3454,16 +3623,16 @@
         <v>703</v>
       </c>
       <c r="F160" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G160" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3483,7 +3652,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3495,54 +3664,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3564,11 +3733,11 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="16"/>
       <c r="D1" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3576,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3584,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3592,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3600,7 +3769,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3608,7 +3777,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3616,7 +3785,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3624,7 +3793,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3632,7 +3801,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3640,7 +3809,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3648,7 +3817,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3656,7 +3825,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3664,7 +3833,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3672,7 +3841,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3680,22 +3849,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="H15" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3703,25 +3872,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G16" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="H16" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="143">
   <si>
     <t>Id</t>
   </si>
@@ -52,6 +52,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>道具</t>
@@ -76,6 +77,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>规则：类型</t>
@@ -92,6 +94,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自然递增</t>
@@ -677,6 +680,14 @@
   </si>
   <si>
     <t>女仆碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tradable</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否交易1可以0不可以</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -698,12 +709,14 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1151,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1165,7 +1178,7 @@
     <col min="7" max="7" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1193,8 +1206,11 @@
       <c r="I1" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1222,13 +1238,16 @@
       <c r="I2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1252,8 +1271,11 @@
       <c r="I4" s="12" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>120001</v>
       </c>
@@ -1278,8 +1300,11 @@
       <c r="I5" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>120002</v>
       </c>
@@ -1304,8 +1329,11 @@
       <c r="I6" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>120003</v>
       </c>
@@ -1330,8 +1358,11 @@
       <c r="I7" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>120004</v>
       </c>
@@ -1356,8 +1387,11 @@
       <c r="I8" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>120005</v>
       </c>
@@ -1382,8 +1416,11 @@
       <c r="I9" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>130001</v>
       </c>
@@ -1408,8 +1445,11 @@
       <c r="I10" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>130002</v>
       </c>
@@ -1434,8 +1474,11 @@
       <c r="I11" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>130003</v>
       </c>
@@ -1460,8 +1503,11 @@
       <c r="I12" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>130004</v>
       </c>
@@ -1486,8 +1532,11 @@
       <c r="I13" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>130005</v>
       </c>
@@ -1512,8 +1561,11 @@
       <c r="I14" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>130006</v>
       </c>
@@ -1538,8 +1590,11 @@
       <c r="I15" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>130007</v>
       </c>
@@ -1564,8 +1619,11 @@
       <c r="I16" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>130008</v>
       </c>
@@ -1590,8 +1648,11 @@
       <c r="I17" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>130009</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="I18" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>130010</v>
       </c>
@@ -1642,8 +1706,11 @@
       <c r="I19" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>130011</v>
       </c>
@@ -1668,8 +1735,11 @@
       <c r="I20" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>130012</v>
       </c>
@@ -1694,8 +1764,11 @@
       <c r="I21" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>130013</v>
       </c>
@@ -1720,8 +1793,11 @@
       <c r="I22" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>130014</v>
       </c>
@@ -1746,8 +1822,11 @@
       <c r="I23" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>130015</v>
       </c>
@@ -1772,8 +1851,11 @@
       <c r="I24" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>130016</v>
       </c>
@@ -1798,8 +1880,11 @@
       <c r="I25" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>130017</v>
       </c>
@@ -1824,8 +1909,11 @@
       <c r="I26" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>130018</v>
       </c>
@@ -1850,8 +1938,11 @@
       <c r="I27" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>130019</v>
       </c>
@@ -1876,8 +1967,11 @@
       <c r="I28" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>130020</v>
       </c>
@@ -1902,8 +1996,11 @@
       <c r="I29" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>130021</v>
       </c>
@@ -1928,8 +2025,11 @@
       <c r="I30" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>130022</v>
       </c>
@@ -1954,8 +2054,11 @@
       <c r="I31" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>130023</v>
       </c>
@@ -1979,6 +2082,9 @@
       </c>
       <c r="I32" s="12" t="s">
         <v>138</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2006,6 +2112,9 @@
       <c r="I33" s="12" t="s">
         <v>138</v>
       </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -2032,6 +2141,9 @@
       <c r="I34" s="12" t="s">
         <v>138</v>
       </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35">
@@ -2058,6 +2170,9 @@
       <c r="I35" s="12" t="s">
         <v>139</v>
       </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -2087,6 +2202,9 @@
       <c r="I36" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="5"/>
     </row>
@@ -2118,6 +2236,9 @@
       <c r="I37" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="5"/>
     </row>
@@ -2149,6 +2270,9 @@
       <c r="I38" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="5"/>
     </row>
@@ -2180,6 +2304,9 @@
       <c r="I39" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="5"/>
     </row>
@@ -2211,6 +2338,9 @@
       <c r="I40" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
       <c r="K40" s="2"/>
       <c r="L40" s="5"/>
     </row>
@@ -2242,6 +2372,9 @@
       <c r="I41" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
       <c r="K41" s="2"/>
       <c r="L41" s="5"/>
     </row>
@@ -2273,6 +2406,9 @@
       <c r="I42" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
       <c r="K42" s="2"/>
       <c r="L42" s="5"/>
     </row>
@@ -2304,6 +2440,9 @@
       <c r="I43" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
       <c r="K43" s="2"/>
       <c r="L43" s="5"/>
     </row>
@@ -2335,6 +2474,9 @@
       <c r="I44" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
       <c r="K44" s="2"/>
       <c r="L44" s="5"/>
     </row>
@@ -2366,6 +2508,9 @@
       <c r="I45" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
       <c r="K45" s="2"/>
       <c r="L45" s="5"/>
     </row>
@@ -2397,6 +2542,9 @@
       <c r="I46" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
       <c r="K46" s="2"/>
       <c r="L46" s="5"/>
     </row>
@@ -2428,6 +2576,9 @@
       <c r="I47" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
       <c r="K47" s="2"/>
       <c r="L47" s="5"/>
     </row>
@@ -2459,6 +2610,9 @@
       <c r="I48" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
       <c r="K48" s="2"/>
       <c r="L48" s="5"/>
     </row>
@@ -2483,6 +2637,9 @@
       </c>
       <c r="G49" s="5"/>
       <c r="I49" s="12"/>
+      <c r="J49">
+        <v>1</v>
+      </c>
       <c r="K49" s="2"/>
       <c r="L49" s="5"/>
     </row>
@@ -2507,6 +2664,9 @@
       </c>
       <c r="G50" s="5"/>
       <c r="I50" s="12"/>
+      <c r="J50">
+        <v>1</v>
+      </c>
       <c r="K50" s="2"/>
       <c r="L50" s="5"/>
     </row>
@@ -2531,6 +2691,9 @@
       </c>
       <c r="G51" s="5"/>
       <c r="I51" s="12"/>
+      <c r="J51">
+        <v>1</v>
+      </c>
       <c r="K51" s="2"/>
       <c r="L51" s="5"/>
     </row>
@@ -2554,6 +2717,9 @@
         <v>64</v>
       </c>
       <c r="G52" s="8"/>
+      <c r="J52">
+        <v>1</v>
+      </c>
       <c r="K52" s="2"/>
       <c r="L52" s="5"/>
     </row>
@@ -2577,6 +2743,9 @@
         <v>65</v>
       </c>
       <c r="G53" s="8"/>
+      <c r="J53">
+        <v>1</v>
+      </c>
       <c r="K53" s="2"/>
       <c r="L53" s="5"/>
     </row>
@@ -2600,6 +2769,9 @@
         <v>85</v>
       </c>
       <c r="G54" s="8"/>
+      <c r="J54">
+        <v>1</v>
+      </c>
       <c r="K54" s="2"/>
       <c r="L54" s="5"/>
     </row>
@@ -2623,6 +2795,9 @@
         <v>86</v>
       </c>
       <c r="G55" s="8"/>
+      <c r="J55">
+        <v>1</v>
+      </c>
       <c r="K55" s="2"/>
       <c r="L55" s="5"/>
     </row>
@@ -2646,6 +2821,9 @@
         <v>87</v>
       </c>
       <c r="G56" s="8"/>
+      <c r="J56">
+        <v>1</v>
+      </c>
       <c r="K56" s="2"/>
       <c r="L56" s="5"/>
     </row>
@@ -2669,6 +2847,9 @@
         <v>88</v>
       </c>
       <c r="G57" s="8"/>
+      <c r="J57">
+        <v>1</v>
+      </c>
       <c r="K57" s="2"/>
       <c r="L57" s="5"/>
     </row>
@@ -2692,6 +2873,9 @@
         <v>89</v>
       </c>
       <c r="G58" s="8"/>
+      <c r="J58">
+        <v>1</v>
+      </c>
       <c r="K58" s="2"/>
       <c r="L58" s="5"/>
     </row>
@@ -2715,6 +2899,9 @@
         <v>90</v>
       </c>
       <c r="G59" s="8"/>
+      <c r="J59">
+        <v>1</v>
+      </c>
       <c r="K59" s="2"/>
       <c r="L59" s="5"/>
     </row>
@@ -2738,6 +2925,9 @@
         <v>91</v>
       </c>
       <c r="G60" s="8"/>
+      <c r="J60">
+        <v>1</v>
+      </c>
       <c r="K60" s="2"/>
       <c r="L60" s="5"/>
     </row>
@@ -2761,6 +2951,9 @@
         <v>92</v>
       </c>
       <c r="G61" s="8"/>
+      <c r="J61">
+        <v>1</v>
+      </c>
       <c r="K61" s="2"/>
       <c r="L61" s="5"/>
     </row>
@@ -2784,6 +2977,9 @@
         <v>93</v>
       </c>
       <c r="G62" s="8"/>
+      <c r="J62">
+        <v>1</v>
+      </c>
       <c r="K62" s="2"/>
       <c r="L62" s="5"/>
     </row>
@@ -2807,6 +3003,9 @@
         <v>94</v>
       </c>
       <c r="G63" s="8"/>
+      <c r="J63">
+        <v>1</v>
+      </c>
       <c r="K63" s="2"/>
       <c r="L63" s="5"/>
     </row>
@@ -2830,6 +3029,9 @@
         <v>95</v>
       </c>
       <c r="G64" s="8"/>
+      <c r="J64">
+        <v>1</v>
+      </c>
       <c r="K64" s="2"/>
       <c r="L64" s="5"/>
     </row>
@@ -2853,6 +3055,9 @@
         <v>96</v>
       </c>
       <c r="G65" s="8"/>
+      <c r="J65">
+        <v>1</v>
+      </c>
       <c r="K65" s="2"/>
       <c r="L65" s="5"/>
     </row>
@@ -2876,6 +3081,9 @@
         <v>97</v>
       </c>
       <c r="G66" s="8"/>
+      <c r="J66">
+        <v>1</v>
+      </c>
       <c r="K66" s="2"/>
       <c r="L66" s="5"/>
     </row>
@@ -2901,6 +3109,9 @@
       <c r="G67" s="8" t="s">
         <v>99</v>
       </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
       <c r="K67" s="2"/>
       <c r="L67" s="5"/>
     </row>
@@ -2926,6 +3137,9 @@
       <c r="G68" s="8" t="s">
         <v>101</v>
       </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
       <c r="K68" s="2"/>
       <c r="L68" s="9"/>
     </row>
@@ -2950,6 +3164,9 @@
       </c>
       <c r="G69" s="8" t="s">
         <v>103</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="9"/>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27735" windowHeight="11895" tabRatio="204"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TItem" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
     <sheet name="#" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SubType</t>
+  </si>
+  <si>
     <t>Color</t>
   </si>
   <si>
@@ -34,6 +40,12 @@
   </si>
   <si>
     <t>Clothes</t>
+  </si>
+  <si>
+    <t>TypeDes</t>
+  </si>
+  <si>
+    <t>Tradable</t>
   </si>
   <si>
     <t>uint32</t>
@@ -52,7 +64,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>道具</t>
@@ -61,7 +72,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -69,7 +80,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -77,7 +88,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>规则：类型</t>
@@ -86,7 +96,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>x10000+</t>
     </r>
@@ -94,7 +104,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自然递增</t>
@@ -103,7 +112,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -124,12 +133,21 @@
     <t>合成时装</t>
   </si>
   <si>
+    <t>类型名</t>
+  </si>
+  <si>
+    <t>可否交易1可以0不可以</t>
+  </si>
+  <si>
     <t>乳胶漆</t>
   </si>
   <si>
     <t>用于客厅，卧室升级</t>
   </si>
   <si>
+    <t>房屋</t>
+  </si>
+  <si>
     <t>木地板</t>
   </si>
   <si>
@@ -145,12 +163,18 @@
     <t>用于房屋升级</t>
   </si>
   <si>
+    <t>龙头</t>
+  </si>
+  <si>
     <t>发动机零件</t>
   </si>
   <si>
     <t>用于发动机升级</t>
   </si>
   <si>
+    <t>车子</t>
+  </si>
+  <si>
     <t>电瓶零件</t>
   </si>
   <si>
@@ -181,12 +205,18 @@
     <t xml:space="preserve">用于女仆升级 </t>
   </si>
   <si>
+    <t>女仆</t>
+  </si>
+  <si>
     <t>少女红发碎片</t>
   </si>
   <si>
     <t>用于少女红发合成</t>
   </si>
   <si>
+    <t>女仆碎片</t>
+  </si>
+  <si>
     <t>少女紫发碎片</t>
   </si>
   <si>
@@ -272,6 +302,63 @@
   </si>
   <si>
     <t>免费次数</t>
+  </si>
+  <si>
+    <t>少女红发</t>
+  </si>
+  <si>
+    <t>少女紫发</t>
+  </si>
+  <si>
+    <t>少女蓝发</t>
+  </si>
+  <si>
+    <t>星星无袖</t>
+  </si>
+  <si>
+    <t>绿色夹克</t>
+  </si>
+  <si>
+    <t>蓝色短袖</t>
+  </si>
+  <si>
+    <t>牛仔短裤</t>
+  </si>
+  <si>
+    <t>粉色短裙</t>
+  </si>
+  <si>
+    <t>灰色短裤</t>
+  </si>
+  <si>
+    <t>小白鞋</t>
+  </si>
+  <si>
+    <t>少女鞋(黑)</t>
+  </si>
+  <si>
+    <t>少女鞋(蓝)</t>
+  </si>
+  <si>
+    <t>樱</t>
+  </si>
+  <si>
+    <t>京东e卡50元</t>
+  </si>
+  <si>
+    <t>实物50元京东卡</t>
+  </si>
+  <si>
+    <t>30元话费</t>
+  </si>
+  <si>
+    <t>提取直充30元电话卡</t>
+  </si>
+  <si>
+    <t>10元话费</t>
+  </si>
+  <si>
+    <t>提取直充10元电话卡</t>
   </si>
   <si>
     <t>艾利欧</t>
@@ -284,7 +371,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>TableName: "ItemBaseData</t>
     </r>
@@ -292,7 +379,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     </r>
@@ -346,356 +433,266 @@
     <t>注释</t>
   </si>
   <si>
-    <t>少女红发</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女紫发</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女蓝发</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星无袖</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色夹克</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色短袖</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛仔短裤</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉色短裙</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰色短裤</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白鞋</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女鞋(黑)</t>
-  </si>
-  <si>
-    <t>少女鞋(蓝)</t>
-  </si>
-  <si>
-    <t>樱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东e卡50元</t>
-  </si>
-  <si>
-    <t>实物50元京东卡</t>
-  </si>
-  <si>
-    <t>30元话费</t>
-  </si>
-  <si>
-    <t>提取直充30元电话卡</t>
-  </si>
-  <si>
-    <t>10元话费</t>
-  </si>
-  <si>
-    <t>提取直充10元电话卡</t>
-  </si>
-  <si>
-    <t>SubType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>大类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类</t>
   </si>
   <si>
     <t>普通道具</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>数码产品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>购物卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>生活用品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>玩具</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电话卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>货币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>汽车用品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>广告</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小商品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>钻石道具</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>时装</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>房子配件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>车子配件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>仆人配件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>子类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>发动机</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电瓶</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>后备箱</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>邮箱</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>轮胎</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仆人配件</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女仆升级</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>头发</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>上衣</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>下身</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鞋子</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>6</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>套装</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙头</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeDes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>房屋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>车子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>女仆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>女仆碎片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tradable</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可否交易1可以0不可以</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -703,41 +700,173 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,12 +881,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -767,70 +1082,356 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1156,126 +1757,126 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E30" sqref="E30:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.5" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.09765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.3984375" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="8" customWidth="1"/>
+    <col min="2" max="3" width="11.1" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.3" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.1" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>120001</v>
       </c>
@@ -1291,20 +1892,20 @@
       <c r="E5">
         <v>120001</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>137</v>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>120002</v>
       </c>
@@ -1320,20 +1921,20 @@
       <c r="E6">
         <v>120002</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>137</v>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>120003</v>
       </c>
@@ -1349,20 +1950,20 @@
       <c r="E7">
         <v>120003</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>137</v>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>120004</v>
       </c>
@@ -1378,20 +1979,20 @@
       <c r="E8">
         <v>120004</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>137</v>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>120005</v>
       </c>
@@ -1407,20 +2008,20 @@
       <c r="E9">
         <v>120005</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>137</v>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>130001</v>
       </c>
@@ -1436,20 +2037,20 @@
       <c r="E10">
         <v>130001</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>138</v>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>130002</v>
       </c>
@@ -1463,22 +2064,22 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>130002</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>138</v>
+        <v>130001</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>130003</v>
       </c>
@@ -1492,22 +2093,22 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>130003</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>138</v>
+        <v>130001</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>130004</v>
       </c>
@@ -1521,22 +2122,22 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>130004</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>138</v>
+        <v>130001</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>130005</v>
       </c>
@@ -1550,22 +2151,22 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>130005</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>138</v>
+        <v>130001</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>130006</v>
       </c>
@@ -1581,20 +2182,20 @@
       <c r="E15">
         <v>130006</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>138</v>
+      <c r="F15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>130007</v>
       </c>
@@ -1608,22 +2209,22 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>130007</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>138</v>
+        <v>130006</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>130008</v>
       </c>
@@ -1637,22 +2238,22 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>130008</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>138</v>
+        <v>130006</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>130009</v>
       </c>
@@ -1666,22 +2267,22 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>130009</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>138</v>
+        <v>130006</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>130010</v>
       </c>
@@ -1695,22 +2296,22 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>130010</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>138</v>
+        <v>130006</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>130011</v>
       </c>
@@ -1726,20 +2327,20 @@
       <c r="E20">
         <v>130011</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>138</v>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>130012</v>
       </c>
@@ -1753,22 +2354,22 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>130012</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>138</v>
+        <v>130011</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>130013</v>
       </c>
@@ -1782,22 +2383,22 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>130013</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>138</v>
+        <v>130011</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>130014</v>
       </c>
@@ -1811,22 +2412,22 @@
         <v>4</v>
       </c>
       <c r="E23">
-        <v>130014</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>138</v>
+        <v>130011</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>130015</v>
       </c>
@@ -1840,22 +2441,22 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <v>130015</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>138</v>
+        <v>130011</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>130016</v>
       </c>
@@ -1871,20 +2472,20 @@
       <c r="E25">
         <v>130016</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>138</v>
+      <c r="F25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>130017</v>
       </c>
@@ -1898,22 +2499,22 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>130017</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>138</v>
+        <v>130016</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>130018</v>
       </c>
@@ -1927,22 +2528,22 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>130018</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>138</v>
+        <v>130016</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>130019</v>
       </c>
@@ -1956,22 +2557,22 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <v>130019</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>138</v>
+        <v>130016</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>130020</v>
       </c>
@@ -1985,22 +2586,22 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <v>130020</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>138</v>
+        <v>130016</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>130021</v>
       </c>
@@ -2016,20 +2617,20 @@
       <c r="E30">
         <v>130021</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>138</v>
+      <c r="F30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>130022</v>
       </c>
@@ -2043,22 +2644,22 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>130022</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>138</v>
+        <v>130021</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>130023</v>
       </c>
@@ -2072,22 +2673,22 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>130023</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>138</v>
+        <v>130021</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>130024</v>
       </c>
@@ -2101,22 +2702,22 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>130024</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>138</v>
+        <v>130021</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>130025</v>
       </c>
@@ -2130,22 +2731,22 @@
         <v>5</v>
       </c>
       <c r="E34">
-        <v>130025</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>138</v>
+        <v>130021</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>140001</v>
       </c>
@@ -2161,20 +2762,20 @@
       <c r="E35">
         <v>140001</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>139</v>
+      <c r="F35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>110001</v>
       </c>
@@ -2190,25 +2791,25 @@
       <c r="E36">
         <v>110001</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>36</v>
+      <c r="F36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="H36">
         <v>150001</v>
       </c>
-      <c r="I36" s="12" t="s">
-        <v>140</v>
+      <c r="I36" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K36" s="8"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>110002</v>
       </c>
@@ -2224,25 +2825,25 @@
       <c r="E37">
         <v>110002</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>38</v>
+      <c r="F37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="H37">
         <v>150002</v>
       </c>
-      <c r="I37" s="12" t="s">
-        <v>140</v>
+      <c r="I37" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K37" s="8"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>110003</v>
       </c>
@@ -2258,25 +2859,25 @@
       <c r="E38">
         <v>110003</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>40</v>
+      <c r="F38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H38">
         <v>150003</v>
       </c>
-      <c r="I38" s="12" t="s">
-        <v>140</v>
+      <c r="I38" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K38" s="8"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>110004</v>
       </c>
@@ -2292,25 +2893,25 @@
       <c r="E39">
         <v>110004</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>42</v>
+      <c r="F39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="H39">
         <v>150004</v>
       </c>
-      <c r="I39" s="12" t="s">
-        <v>140</v>
+      <c r="I39" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K39" s="8"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>110005</v>
       </c>
@@ -2326,25 +2927,25 @@
       <c r="E40">
         <v>110005</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>44</v>
+      <c r="F40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H40">
         <v>150005</v>
       </c>
-      <c r="I40" s="12" t="s">
-        <v>140</v>
+      <c r="I40" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K40" s="8"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>110006</v>
       </c>
@@ -2360,25 +2961,25 @@
       <c r="E41">
         <v>110006</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>46</v>
+      <c r="F41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="H41">
         <v>150006</v>
       </c>
-      <c r="I41" s="12" t="s">
-        <v>140</v>
+      <c r="I41" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K41" s="8"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>110007</v>
       </c>
@@ -2394,25 +2995,25 @@
       <c r="E42">
         <v>110007</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>48</v>
+      <c r="F42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H42">
         <v>150007</v>
       </c>
-      <c r="I42" s="12" t="s">
-        <v>140</v>
+      <c r="I42" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="8"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>110008</v>
       </c>
@@ -2428,25 +3029,25 @@
       <c r="E43">
         <v>110008</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>50</v>
+      <c r="F43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="H43">
         <v>150008</v>
       </c>
-      <c r="I43" s="12" t="s">
-        <v>140</v>
+      <c r="I43" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="8"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>110009</v>
       </c>
@@ -2462,25 +3063,25 @@
       <c r="E44">
         <v>110009</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>52</v>
+      <c r="F44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="H44">
         <v>150009</v>
       </c>
-      <c r="I44" s="12" t="s">
-        <v>140</v>
+      <c r="I44" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K44" s="8"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>110010</v>
       </c>
@@ -2496,25 +3097,25 @@
       <c r="E45">
         <v>110010</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>54</v>
+      <c r="F45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="H45">
         <v>150010</v>
       </c>
-      <c r="I45" s="12" t="s">
-        <v>140</v>
+      <c r="I45" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
-      <c r="K45" s="2"/>
-      <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="8"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>110011</v>
       </c>
@@ -2530,25 +3131,25 @@
       <c r="E46">
         <v>110011</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>56</v>
+      <c r="F46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="H46">
         <v>150011</v>
       </c>
-      <c r="I46" s="12" t="s">
-        <v>140</v>
+      <c r="I46" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
-      <c r="K46" s="2"/>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K46" s="8"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>110012</v>
       </c>
@@ -2564,25 +3165,25 @@
       <c r="E47">
         <v>110012</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>58</v>
+      <c r="F47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="H47">
         <v>150012</v>
       </c>
-      <c r="I47" s="12" t="s">
-        <v>140</v>
+      <c r="I47" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="8"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>110013</v>
       </c>
@@ -2598,25 +3199,25 @@
       <c r="E48">
         <v>110013</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>60</v>
+      <c r="F48" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H48">
         <v>150013</v>
       </c>
-      <c r="I48" s="12" t="s">
-        <v>140</v>
+      <c r="I48" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
-      <c r="K48" s="2"/>
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="8"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>60001</v>
       </c>
@@ -2633,17 +3234,17 @@
         <v>6001</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" s="5"/>
-      <c r="I49" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="I49" s="2"/>
       <c r="J49">
         <v>1</v>
       </c>
-      <c r="K49" s="2"/>
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="8"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>60002</v>
       </c>
@@ -2659,18 +3260,18 @@
       <c r="E50">
         <v>6002</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="I50" s="12"/>
+      <c r="F50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="I50" s="2"/>
       <c r="J50">
         <v>1</v>
       </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K50" s="8"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>60003</v>
       </c>
@@ -2686,18 +3287,18 @@
       <c r="E51">
         <v>6003</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="I51" s="12"/>
+      <c r="F51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="I51" s="2"/>
       <c r="J51">
         <v>1</v>
       </c>
-      <c r="K51" s="2"/>
-      <c r="L51" s="5"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K51" s="8"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>60004</v>
       </c>
@@ -2713,17 +3314,17 @@
       <c r="E52">
         <v>6004</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" s="8"/>
+      <c r="F52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="12"/>
       <c r="J52">
         <v>1</v>
       </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="8"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>60005</v>
       </c>
@@ -2739,17 +3340,17 @@
       <c r="E53">
         <v>6005</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" s="8"/>
+      <c r="F53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="12"/>
       <c r="J53">
         <v>1</v>
       </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="5"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K53" s="8"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>150001</v>
       </c>
@@ -2765,17 +3366,17 @@
       <c r="E54">
         <v>150001</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G54" s="8"/>
+      <c r="F54" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" s="12"/>
       <c r="J54">
         <v>1</v>
       </c>
-      <c r="K54" s="2"/>
-      <c r="L54" s="5"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K54" s="8"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>150002</v>
       </c>
@@ -2791,17 +3392,17 @@
       <c r="E55">
         <v>150002</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G55" s="8"/>
+      <c r="F55" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="12"/>
       <c r="J55">
         <v>1</v>
       </c>
-      <c r="K55" s="2"/>
-      <c r="L55" s="5"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K55" s="8"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>150003</v>
       </c>
@@ -2817,17 +3418,17 @@
       <c r="E56">
         <v>150003</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" s="8"/>
+      <c r="F56" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="12"/>
       <c r="J56">
         <v>1</v>
       </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="5"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K56" s="8"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>150004</v>
       </c>
@@ -2843,17 +3444,17 @@
       <c r="E57">
         <v>150004</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G57" s="8"/>
+      <c r="F57" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="12"/>
       <c r="J57">
         <v>1</v>
       </c>
-      <c r="K57" s="2"/>
-      <c r="L57" s="5"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K57" s="8"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>150005</v>
       </c>
@@ -2869,17 +3470,17 @@
       <c r="E58">
         <v>150005</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G58" s="8"/>
+      <c r="F58" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="12"/>
       <c r="J58">
         <v>1</v>
       </c>
-      <c r="K58" s="2"/>
-      <c r="L58" s="5"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="8"/>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>150006</v>
       </c>
@@ -2895,17 +3496,17 @@
       <c r="E59">
         <v>150006</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G59" s="8"/>
+      <c r="F59" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" s="12"/>
       <c r="J59">
         <v>1</v>
       </c>
-      <c r="K59" s="2"/>
-      <c r="L59" s="5"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K59" s="8"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>150007</v>
       </c>
@@ -2921,17 +3522,17 @@
       <c r="E60">
         <v>150007</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G60" s="8"/>
+      <c r="F60" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" s="12"/>
       <c r="J60">
         <v>1</v>
       </c>
-      <c r="K60" s="2"/>
-      <c r="L60" s="5"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K60" s="8"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>150008</v>
       </c>
@@ -2947,17 +3548,17 @@
       <c r="E61">
         <v>150008</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G61" s="8"/>
+      <c r="F61" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="12"/>
       <c r="J61">
         <v>1</v>
       </c>
-      <c r="K61" s="2"/>
-      <c r="L61" s="5"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K61" s="8"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>150009</v>
       </c>
@@ -2973,17 +3574,17 @@
       <c r="E62">
         <v>150009</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G62" s="8"/>
+      <c r="F62" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="12"/>
       <c r="J62">
         <v>1</v>
       </c>
-      <c r="K62" s="2"/>
-      <c r="L62" s="5"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="8"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>150010</v>
       </c>
@@ -2999,17 +3600,17 @@
       <c r="E63">
         <v>150010</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G63" s="8"/>
+      <c r="F63" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" s="12"/>
       <c r="J63">
         <v>1</v>
       </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="5"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K63" s="8"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>150011</v>
       </c>
@@ -3025,17 +3626,17 @@
       <c r="E64">
         <v>150011</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G64" s="8"/>
+      <c r="F64" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="12"/>
       <c r="J64">
         <v>1</v>
       </c>
-      <c r="K64" s="2"/>
-      <c r="L64" s="5"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K64" s="8"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>150012</v>
       </c>
@@ -3051,17 +3652,17 @@
       <c r="E65">
         <v>150012</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G65" s="8"/>
+      <c r="F65" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" s="12"/>
       <c r="J65">
         <v>1</v>
       </c>
-      <c r="K65" s="2"/>
-      <c r="L65" s="5"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K65" s="8"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>150013</v>
       </c>
@@ -3077,17 +3678,17 @@
       <c r="E66">
         <v>150013</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G66" s="8"/>
+      <c r="F66" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="12"/>
       <c r="J66">
         <v>1</v>
       </c>
-      <c r="K66" s="2"/>
-      <c r="L66" s="5"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K66" s="8"/>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>20006</v>
       </c>
@@ -3104,18 +3705,18 @@
         <v>2006</v>
       </c>
       <c r="F67" t="s">
-        <v>98</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
-      <c r="K67" s="2"/>
-      <c r="L67" s="5"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K67" s="8"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>50003</v>
       </c>
@@ -3132,18 +3733,18 @@
         <v>5003</v>
       </c>
       <c r="F68" t="s">
-        <v>100</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
-      <c r="K68" s="2"/>
-      <c r="L68" s="9"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K68" s="8"/>
+      <c r="L68" s="15"/>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>50004</v>
       </c>
@@ -3160,696 +3761,695 @@
         <v>5004</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>103</v>
+        <v>94</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="9"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K69" s="8"/>
+      <c r="L69" s="15"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
-      <c r="G70" s="8"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="9"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G70" s="12"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="15"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="G71" s="8"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="9"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G71" s="12"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="15"/>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="G72" s="8"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="9"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G72" s="12"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="15"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
-      <c r="G73" s="8"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="9"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G73" s="12"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="15"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
-      <c r="G74" s="8"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="7"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G74" s="12"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="11"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
-      <c r="G75" s="8"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="7"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G75" s="12"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="11"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="G76" s="8"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="7"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G76" s="12"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="11"/>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78" s="8"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
-      <c r="G79" s="8"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80"/>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F82" s="2"/>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84"/>
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
-      <c r="G85" s="8"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86"/>
-      <c r="G86" s="8"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87" s="8"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88"/>
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89"/>
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90"/>
-      <c r="G90" s="8"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91"/>
-      <c r="G91" s="8"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92"/>
-      <c r="G92" s="8"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93"/>
-      <c r="G93" s="8"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94"/>
-      <c r="G94" s="8"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95"/>
-      <c r="G95" s="8"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96"/>
-      <c r="G96" s="8"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97"/>
-      <c r="G97" s="8"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98"/>
-      <c r="G98" s="8"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99"/>
-      <c r="G99" s="8"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100"/>
-      <c r="G100" s="8"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101"/>
-      <c r="G101" s="8"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102"/>
-      <c r="G102" s="8"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
-      <c r="G103" s="8"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
-      <c r="G104" s="8"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
-      <c r="G105" s="8"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106"/>
-      <c r="G106" s="8"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107"/>
-      <c r="G107" s="8"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108"/>
-      <c r="G108" s="8"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109"/>
-      <c r="G109" s="8"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110"/>
-      <c r="G110" s="8"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
-      <c r="G111" s="8"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112"/>
-      <c r="G112" s="8"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113"/>
-      <c r="G113" s="8"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
-      <c r="G114" s="8"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115"/>
-      <c r="G115" s="8"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116"/>
-      <c r="G116" s="8"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
       <c r="F117"/>
-      <c r="G117" s="8"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118"/>
       <c r="F118"/>
-      <c r="G118" s="8"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119"/>
       <c r="F119"/>
-      <c r="G119" s="8"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120"/>
       <c r="F120"/>
-      <c r="G120" s="8"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121"/>
       <c r="F121"/>
-      <c r="G121" s="8"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="E122"/>
       <c r="F122"/>
-      <c r="G122" s="8"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123"/>
-      <c r="G123" s="8"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="8"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F124" s="2"/>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125"/>
-      <c r="G125" s="8"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
       <c r="F126"/>
-      <c r="G126" s="8"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
       <c r="F127"/>
-      <c r="G127" s="8"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-    </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-    </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-    </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-    </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-    </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-    </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-    </row>
-    <row r="137" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-    </row>
-    <row r="138" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-    </row>
-    <row r="139" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-    </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-    </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-    </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-    </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-    </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F152" s="7"/>
-      <c r="G152" s="5"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F153" s="7"/>
-      <c r="G153" s="5"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F154" s="7"/>
-      <c r="G154" s="5"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F155" s="7"/>
-      <c r="G155" s="5"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F156" s="7"/>
-      <c r="G156" s="5"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F157" s="7"/>
-      <c r="G157" s="5"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F158" s="7"/>
-      <c r="G158" s="5"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F159" s="7"/>
-      <c r="G159" s="5"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" spans="6:7">
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="6:7">
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="6:7">
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="6:7">
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="6:7">
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="6:7">
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="6:7">
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="6:7">
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="6:7">
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="6:7">
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="6:7">
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="6:7">
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="6:7">
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="6:7">
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="6:7">
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="6:7">
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="6:7">
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="6:7">
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="6:7">
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="6:7">
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="6:7">
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="6:7">
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="6:7">
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="6:7">
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="6:7">
+      <c r="F152" s="11"/>
+      <c r="G152" s="2"/>
+    </row>
+    <row r="153" spans="6:7">
+      <c r="F153" s="11"/>
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="6:7">
+      <c r="F154" s="11"/>
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="6:7">
+      <c r="F155" s="11"/>
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="6:7">
+      <c r="F156" s="11"/>
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="6:7">
+      <c r="F157" s="11"/>
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="6:7">
+      <c r="F158" s="11"/>
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="6:7">
+      <c r="F159" s="11"/>
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="8">
         <v>703</v>
       </c>
-      <c r="F160" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>67</v>
+      <c r="F160" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3858,264 +4458,266 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>84</v>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="D1" s="12" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="B7" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="B8" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="B9" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="B10" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="B11" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="B12" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="B13" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="B14" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="B15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>132</v>
+      <c r="B16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="204"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TItem" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
     <sheet name="#" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="147">
   <si>
     <t>Id</t>
   </si>
@@ -72,7 +72,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -80,7 +80,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -96,7 +96,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>x10000+</t>
     </r>
@@ -112,7 +112,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">用于女仆升级 </t>
-  </si>
-  <si>
-    <t>女仆</t>
   </si>
   <si>
     <t>少女红发碎片</t>
@@ -371,7 +368,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>TableName: "ItemBaseData</t>
     </r>
@@ -379,7 +376,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     </r>
@@ -470,9 +467,6 @@
   </si>
   <si>
     <t>钻石道具</t>
-  </si>
-  <si>
-    <t>时装</t>
   </si>
   <si>
     <t>房子配件</t>
@@ -485,7 +479,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -503,7 +497,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -521,7 +515,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -539,7 +533,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -557,7 +551,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -571,32 +565,11 @@
     </r>
   </si>
   <si>
-    <t>仆人配件</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女仆升级</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -614,7 +587,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -632,7 +605,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -650,7 +623,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -668,7 +641,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -681,18 +654,54 @@
       <t>套装</t>
     </r>
   </si>
+  <si>
+    <t>女仆碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梓喵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梓喵碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>装扮碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>装扮时装</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仆人升级配件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女仆升级</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于梓喵碎片合成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -706,7 +715,7 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -715,158 +724,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -881,198 +750,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1095,260 +778,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1380,58 +818,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1757,61 +1162,61 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:E34"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5" style="8" customWidth="1"/>
-    <col min="2" max="3" width="11.1" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.3" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.1" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20" style="8" customWidth="1"/>
-    <col min="7" max="7" width="23.4" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="7" customWidth="1"/>
+    <col min="2" max="3" width="11.09765625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.296875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="20" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1824,59 +1229,59 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>120001</v>
       </c>
@@ -1892,20 +1297,20 @@
       <c r="E5">
         <v>120001</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>120002</v>
       </c>
@@ -1921,20 +1326,20 @@
       <c r="E6">
         <v>120002</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>120003</v>
       </c>
@@ -1950,20 +1355,20 @@
       <c r="E7">
         <v>120003</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>120004</v>
       </c>
@@ -1979,20 +1384,20 @@
       <c r="E8">
         <v>120004</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>120005</v>
       </c>
@@ -2008,20 +1413,20 @@
       <c r="E9">
         <v>120005</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>130001</v>
       </c>
@@ -2037,20 +1442,20 @@
       <c r="E10">
         <v>130001</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>130002</v>
       </c>
@@ -2066,20 +1471,20 @@
       <c r="E11">
         <v>130001</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>130003</v>
       </c>
@@ -2095,20 +1500,20 @@
       <c r="E12">
         <v>130001</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>130004</v>
       </c>
@@ -2124,20 +1529,20 @@
       <c r="E13">
         <v>130001</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>130005</v>
       </c>
@@ -2153,20 +1558,20 @@
       <c r="E14">
         <v>130001</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>130006</v>
       </c>
@@ -2182,20 +1587,20 @@
       <c r="E15">
         <v>130006</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>130007</v>
       </c>
@@ -2211,20 +1616,20 @@
       <c r="E16">
         <v>130006</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>130008</v>
       </c>
@@ -2240,20 +1645,20 @@
       <c r="E17">
         <v>130006</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>130009</v>
       </c>
@@ -2269,20 +1674,20 @@
       <c r="E18">
         <v>130006</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>130010</v>
       </c>
@@ -2298,20 +1703,20 @@
       <c r="E19">
         <v>130006</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>130011</v>
       </c>
@@ -2327,20 +1732,20 @@
       <c r="E20">
         <v>130011</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>130012</v>
       </c>
@@ -2356,20 +1761,20 @@
       <c r="E21">
         <v>130011</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>130013</v>
       </c>
@@ -2385,20 +1790,20 @@
       <c r="E22">
         <v>130011</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>130014</v>
       </c>
@@ -2414,20 +1819,20 @@
       <c r="E23">
         <v>130011</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>130015</v>
       </c>
@@ -2443,20 +1848,20 @@
       <c r="E24">
         <v>130011</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>130016</v>
       </c>
@@ -2472,20 +1877,20 @@
       <c r="E25">
         <v>130016</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>130017</v>
       </c>
@@ -2501,20 +1906,20 @@
       <c r="E26">
         <v>130016</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>130018</v>
       </c>
@@ -2530,20 +1935,20 @@
       <c r="E27">
         <v>130016</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>130019</v>
       </c>
@@ -2559,20 +1964,20 @@
       <c r="E28">
         <v>130016</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>130020</v>
       </c>
@@ -2588,20 +1993,20 @@
       <c r="E29">
         <v>130016</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>130021</v>
       </c>
@@ -2617,20 +2022,20 @@
       <c r="E30">
         <v>130021</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>130022</v>
       </c>
@@ -2646,20 +2051,20 @@
       <c r="E31">
         <v>130021</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>130023</v>
       </c>
@@ -2675,20 +2080,20 @@
       <c r="E32">
         <v>130021</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>130024</v>
       </c>
@@ -2704,20 +2109,20 @@
       <c r="E33">
         <v>130021</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>130025</v>
       </c>
@@ -2733,20 +2138,20 @@
       <c r="E34">
         <v>130021</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>140001</v>
       </c>
@@ -2762,20 +2167,20 @@
       <c r="E35">
         <v>140001</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>44</v>
+      <c r="I35" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>110001</v>
       </c>
@@ -2791,25 +2196,25 @@
       <c r="E36">
         <v>110001</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="H36">
         <v>150001</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>47</v>
+      <c r="I36" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="K36" s="7"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>110002</v>
       </c>
@@ -2825,25 +2230,25 @@
       <c r="E37">
         <v>110002</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="H37">
         <v>150002</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>47</v>
+      <c r="I37" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="K37" s="7"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>110003</v>
       </c>
@@ -2859,25 +2264,25 @@
       <c r="E38">
         <v>110003</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="H38">
         <v>150003</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>47</v>
+      <c r="I38" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="K38" s="7"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>110004</v>
       </c>
@@ -2893,25 +2298,25 @@
       <c r="E39">
         <v>110004</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="H39">
         <v>150004</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>47</v>
+      <c r="I39" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="K39" s="7"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>110005</v>
       </c>
@@ -2927,25 +2332,25 @@
       <c r="E40">
         <v>110005</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="H40">
         <v>150005</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>47</v>
+      <c r="I40" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="K40" s="7"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>110006</v>
       </c>
@@ -2961,25 +2366,25 @@
       <c r="E41">
         <v>110006</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="H41">
         <v>150006</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>47</v>
+      <c r="I41" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
-      <c r="K41" s="8"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="K41" s="7"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>110007</v>
       </c>
@@ -2995,25 +2400,25 @@
       <c r="E42">
         <v>110007</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="H42">
         <v>150007</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>47</v>
+      <c r="I42" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="K42" s="7"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>110008</v>
       </c>
@@ -3029,25 +2434,25 @@
       <c r="E43">
         <v>110008</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="H43">
         <v>150008</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>47</v>
+      <c r="I43" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="K43" s="7"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>110009</v>
       </c>
@@ -3063,25 +2468,25 @@
       <c r="E44">
         <v>110009</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="H44">
         <v>150009</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>47</v>
+      <c r="I44" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="K44" s="7"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>110010</v>
       </c>
@@ -3097,25 +2502,25 @@
       <c r="E45">
         <v>110010</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="H45">
         <v>150010</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>47</v>
+      <c r="I45" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="K45" s="7"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>110011</v>
       </c>
@@ -3131,25 +2536,25 @@
       <c r="E46">
         <v>110011</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="H46">
         <v>150011</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>47</v>
+      <c r="I46" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="K46" s="7"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>110012</v>
       </c>
@@ -3165,25 +2570,25 @@
       <c r="E47">
         <v>110012</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="H47">
         <v>150012</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>47</v>
+      <c r="I47" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="K47" s="7"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>110013</v>
       </c>
@@ -3199,54 +2604,61 @@
       <c r="E48">
         <v>110013</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="H48">
         <v>150013</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>47</v>
+      <c r="I48" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="K48" s="7"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
+        <v>110014</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>110014</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49">
+        <v>150014</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>60001</v>
-      </c>
-      <c r="B49">
-        <v>6</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>6001</v>
-      </c>
-      <c r="F49" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50">
-        <v>60002</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3258,22 +2670,22 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>6002</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="I50" s="2"/>
+        <v>6001</v>
+      </c>
+      <c r="F50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="I50" s="1"/>
       <c r="J50">
         <v>1</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="K50" s="7"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -3285,22 +2697,22 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>6003</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="I51" s="2"/>
+        <v>6002</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="I51" s="1"/>
       <c r="J51">
         <v>1</v>
       </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="K51" s="7"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -3312,21 +2724,22 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>6004</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" s="12"/>
+        <v>6003</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="I52" s="1"/>
       <c r="J52">
         <v>1</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="K52" s="7"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -3338,47 +2751,47 @@
         <v>1</v>
       </c>
       <c r="E53">
+        <v>6004</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>60005</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>6005</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G53" s="12"/>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54">
+      <c r="F54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>150001</v>
-      </c>
-      <c r="B54">
-        <v>15</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>150001</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="12"/>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55">
-        <v>150002</v>
       </c>
       <c r="B55">
         <v>15</v>
@@ -3390,21 +2803,21 @@
         <v>1</v>
       </c>
       <c r="E55">
+        <v>150001</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>150002</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="12"/>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56">
-        <v>150003</v>
       </c>
       <c r="B56">
         <v>15</v>
@@ -3416,47 +2829,47 @@
         <v>1</v>
       </c>
       <c r="E56">
+        <v>150002</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>150003</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="12"/>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57">
-        <v>150004</v>
       </c>
       <c r="B57">
         <v>15</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
+        <v>150003</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>150004</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="12"/>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58">
-        <v>150005</v>
       </c>
       <c r="B58">
         <v>15</v>
@@ -3468,21 +2881,21 @@
         <v>1</v>
       </c>
       <c r="E58">
+        <v>150004</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="11"/>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>150005</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" s="12"/>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59">
-        <v>150006</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -3494,47 +2907,47 @@
         <v>1</v>
       </c>
       <c r="E59">
+        <v>150005</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" s="11"/>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>150006</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G59" s="12"/>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60">
-        <v>150007</v>
       </c>
       <c r="B60">
         <v>15</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
+        <v>150006</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" s="11"/>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>150007</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" s="12"/>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61">
-        <v>150008</v>
       </c>
       <c r="B61">
         <v>15</v>
@@ -3546,21 +2959,21 @@
         <v>1</v>
       </c>
       <c r="E61">
+        <v>150007</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" s="11"/>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" s="7"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>150008</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G61" s="12"/>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62">
-        <v>150009</v>
       </c>
       <c r="B62">
         <v>15</v>
@@ -3572,47 +2985,47 @@
         <v>1</v>
       </c>
       <c r="E62">
+        <v>150008</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="11"/>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" s="7"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>150009</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" s="12"/>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63">
-        <v>150010</v>
       </c>
       <c r="B63">
         <v>15</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63">
+        <v>150009</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" s="11"/>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" s="7"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>150010</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G63" s="12"/>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64">
-        <v>150011</v>
       </c>
       <c r="B64">
         <v>15</v>
@@ -3624,21 +3037,21 @@
         <v>1</v>
       </c>
       <c r="E64">
+        <v>150010</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" s="11"/>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" s="7"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>150011</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G64" s="12"/>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65">
-        <v>150012</v>
       </c>
       <c r="B65">
         <v>15</v>
@@ -3650,106 +3063,102 @@
         <v>1</v>
       </c>
       <c r="E65">
+        <v>150011</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" s="11"/>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" s="7"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>150012</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" s="12"/>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66">
-        <v>150013</v>
       </c>
       <c r="B66">
         <v>15</v>
       </c>
       <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>150012</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="11"/>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>150013</v>
+      </c>
+      <c r="B67">
+        <v>15</v>
+      </c>
+      <c r="C67">
         <v>6</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
         <v>150013</v>
       </c>
-      <c r="F66" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" s="12"/>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67">
+      <c r="F67" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" s="7"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>150014</v>
+      </c>
+      <c r="B68">
+        <v>15</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>150014</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" s="7"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>20006</v>
       </c>
-      <c r="B67">
+      <c r="B69">
         <v>2</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>2006</v>
-      </c>
-      <c r="F67" t="s">
-        <v>90</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68">
-        <v>50003</v>
-      </c>
-      <c r="B68">
-        <v>5</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>5003</v>
-      </c>
-      <c r="F68" t="s">
-        <v>92</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68" s="8"/>
-      <c r="L68" s="15"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69">
-        <v>50004</v>
-      </c>
-      <c r="B69">
-        <v>5</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3758,697 +3167,754 @@
         <v>1</v>
       </c>
       <c r="E69">
+        <v>2006</v>
+      </c>
+      <c r="F69" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>50003</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>5003</v>
+      </c>
+      <c r="F70" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" s="7"/>
+      <c r="L70" s="14"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>50004</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
         <v>5004</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F71" t="s">
+        <v>93</v>
+      </c>
+      <c r="G71" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G69" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="15"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70" s="12"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="15"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71" s="12"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="15"/>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" s="7"/>
+      <c r="L71" s="14"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="G72" s="12"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="15"/>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="G72" s="11"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="14"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
-      <c r="G73" s="12"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="15"/>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="G73" s="11"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="14"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
-      <c r="G74" s="12"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="11"/>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="G74" s="11"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="14"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
-      <c r="G75" s="12"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="11"/>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="G75" s="11"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="14"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="G76" s="12"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="11"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="G76" s="11"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="10"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77" s="12"/>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="G77" s="11"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="10"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78" s="12"/>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="G78" s="11"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="10"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
-      <c r="G79" s="12"/>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80"/>
-      <c r="G80" s="12"/>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
-      <c r="G81" s="12"/>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="F82"/>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
-      <c r="G83" s="12"/>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84" s="12"/>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="F84" s="1"/>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
-      <c r="G85" s="12"/>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86"/>
-      <c r="G86" s="12"/>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87" s="12"/>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88"/>
-      <c r="G88" s="12"/>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89"/>
-      <c r="G89" s="12"/>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90"/>
-      <c r="G90" s="12"/>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91"/>
-      <c r="G91" s="12"/>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92"/>
-      <c r="G92" s="12"/>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93"/>
-      <c r="G93" s="12"/>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94"/>
-      <c r="G94" s="12"/>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="G94" s="11"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95"/>
-      <c r="G95" s="12"/>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="G95" s="11"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96"/>
-      <c r="G96" s="12"/>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="G96" s="11"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97"/>
-      <c r="G97" s="12"/>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="G97" s="11"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98"/>
-      <c r="G98" s="12"/>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="G98" s="11"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99"/>
-      <c r="G99" s="12"/>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="G99" s="11"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100"/>
-      <c r="G100" s="12"/>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="G100" s="11"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101"/>
-      <c r="G101" s="12"/>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="G101" s="11"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102"/>
-      <c r="G102" s="12"/>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="G102" s="11"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
-      <c r="G103" s="12"/>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="G103" s="11"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
-      <c r="G104" s="12"/>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
-      <c r="G105" s="12"/>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106"/>
-      <c r="G106" s="12"/>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107"/>
-      <c r="G107" s="12"/>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="G107" s="11"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108"/>
-      <c r="G108" s="12"/>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="G108" s="11"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109"/>
-      <c r="G109" s="12"/>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110"/>
-      <c r="G110" s="12"/>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="G110" s="11"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
-      <c r="G111" s="12"/>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="G111" s="11"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112"/>
-      <c r="G112" s="12"/>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="G112" s="11"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113"/>
-      <c r="G113" s="12"/>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="G113" s="11"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
-      <c r="G114" s="12"/>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="G114" s="11"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115"/>
-      <c r="G115" s="12"/>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="G115" s="11"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116"/>
-      <c r="G116" s="12"/>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="G116" s="11"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
       <c r="F117"/>
-      <c r="G117" s="12"/>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118"/>
       <c r="F118"/>
-      <c r="G118" s="12"/>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119"/>
       <c r="F119"/>
-      <c r="G119" s="12"/>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120"/>
       <c r="F120"/>
-      <c r="G120" s="12"/>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="G120" s="11"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121"/>
       <c r="F121"/>
-      <c r="G121" s="12"/>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="G121" s="11"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="E122"/>
       <c r="F122"/>
-      <c r="G122" s="12"/>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="G122" s="11"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123"/>
-      <c r="G123" s="12"/>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="12"/>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="F124"/>
+      <c r="G124" s="11"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125"/>
-      <c r="G125" s="12"/>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="G125" s="11"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126" s="12"/>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="F126" s="1"/>
+      <c r="G126" s="11"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
       <c r="F127"/>
-      <c r="G127" s="12"/>
-    </row>
-    <row r="128" spans="6:7">
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="6:7">
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-    </row>
-    <row r="130" spans="6:7">
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-    </row>
-    <row r="131" spans="6:7">
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="6:7">
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-    </row>
-    <row r="133" spans="6:7">
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-    </row>
-    <row r="134" spans="6:7">
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="6:7">
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="6:7">
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-    </row>
-    <row r="137" spans="6:7">
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-    </row>
-    <row r="138" spans="6:7">
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-    </row>
-    <row r="139" spans="6:7">
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-    </row>
-    <row r="140" spans="6:7">
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-    </row>
-    <row r="141" spans="6:7">
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-    </row>
-    <row r="142" spans="6:7">
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-    </row>
-    <row r="143" spans="6:7">
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-    </row>
-    <row r="144" spans="6:7">
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-    </row>
-    <row r="145" spans="6:7">
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-    </row>
-    <row r="146" spans="6:7">
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-    </row>
-    <row r="147" spans="6:7">
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-    </row>
-    <row r="148" spans="6:7">
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-    </row>
-    <row r="149" spans="6:7">
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-    </row>
-    <row r="150" spans="6:7">
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-    </row>
-    <row r="151" spans="6:7">
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-    </row>
-    <row r="152" spans="6:7">
-      <c r="F152" s="11"/>
-      <c r="G152" s="2"/>
-    </row>
-    <row r="153" spans="6:7">
-      <c r="F153" s="11"/>
-      <c r="G153" s="2"/>
-    </row>
-    <row r="154" spans="6:7">
-      <c r="F154" s="11"/>
-      <c r="G154" s="2"/>
-    </row>
-    <row r="155" spans="6:7">
-      <c r="F155" s="11"/>
-      <c r="G155" s="2"/>
-    </row>
-    <row r="156" spans="6:7">
-      <c r="F156" s="11"/>
-      <c r="G156" s="2"/>
-    </row>
-    <row r="157" spans="6:7">
-      <c r="F157" s="11"/>
-      <c r="G157" s="2"/>
-    </row>
-    <row r="158" spans="6:7">
-      <c r="F158" s="11"/>
-      <c r="G158" s="2"/>
-    </row>
-    <row r="159" spans="6:7">
-      <c r="F159" s="11"/>
-      <c r="G159" s="2"/>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="8">
+      <c r="G127" s="11"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128" s="11"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129" s="11"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F154" s="10"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F155" s="10"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F156" s="10"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F157" s="10"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F158" s="10"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F159" s="10"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F160" s="10"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F161" s="10"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="7">
         <v>703</v>
       </c>
-      <c r="F160" s="11" t="s">
+      <c r="F162" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G160" s="2" t="s">
-        <v>97</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -4458,266 +3924,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>114</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="D1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="6" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="148">
   <si>
     <t>Id</t>
   </si>
@@ -694,6 +694,10 @@
   </si>
   <si>
     <t>用于梓喵碎片合成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆升级</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -818,9 +822,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -831,6 +832,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2173,8 +2177,8 @@
       <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="18" t="s">
-        <v>139</v>
+      <c r="I35" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2205,7 +2209,7 @@
       <c r="H36">
         <v>150001</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="17" t="s">
         <v>139</v>
       </c>
       <c r="J36">
@@ -2613,7 +2617,7 @@
       <c r="H48">
         <v>150013</v>
       </c>
-      <c r="I48" s="18" t="s">
+      <c r="I48" s="17" t="s">
         <v>139</v>
       </c>
       <c r="J48">
@@ -2638,10 +2642,10 @@
       <c r="E49">
         <v>110014</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="17" t="s">
         <v>146</v>
       </c>
       <c r="H49">
@@ -3143,7 +3147,7 @@
       <c r="E68">
         <v>150014</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="15" t="s">
         <v>140</v>
       </c>
       <c r="G68" s="11"/>
@@ -4018,10 +4022,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="20"/>
       <c r="D1" s="1" t="s">
         <v>115</v>
       </c>
@@ -4118,7 +4122,7 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>142</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -4175,15 +4179,15 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>143</v>
       </c>
       <c r="E17" s="4" t="s">

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Tradable</t>
-  </si>
-  <si>
-    <t>uint32</t>
   </si>
   <si>
     <t>int32</t>
@@ -698,6 +695,10 @@
   </si>
   <si>
     <t>女仆升级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1174,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1221,68 +1222,68 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1302,13 +1303,13 @@
         <v>120001</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1331,13 +1332,13 @@
         <v>120002</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1360,13 +1361,13 @@
         <v>120003</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1389,13 +1390,13 @@
         <v>120004</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1418,13 +1419,13 @@
         <v>120005</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1447,13 +1448,13 @@
         <v>130001</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="I10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1476,13 +1477,13 @@
         <v>130001</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="I11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1505,13 +1506,13 @@
         <v>130001</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="I12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1534,13 +1535,13 @@
         <v>130001</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="I13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1563,13 +1564,13 @@
         <v>130001</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="I14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1592,13 +1593,13 @@
         <v>130006</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1621,13 +1622,13 @@
         <v>130006</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1650,13 +1651,13 @@
         <v>130006</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1679,13 +1680,13 @@
         <v>130006</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1708,13 +1709,13 @@
         <v>130006</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1737,13 +1738,13 @@
         <v>130011</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1766,13 +1767,13 @@
         <v>130011</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1795,13 +1796,13 @@
         <v>130011</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1824,13 +1825,13 @@
         <v>130011</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1853,13 +1854,13 @@
         <v>130011</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1882,13 +1883,13 @@
         <v>130016</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1911,13 +1912,13 @@
         <v>130016</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1940,13 +1941,13 @@
         <v>130016</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1969,13 +1970,13 @@
         <v>130016</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1998,13 +1999,13 @@
         <v>130016</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2027,13 +2028,13 @@
         <v>130021</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2056,13 +2057,13 @@
         <v>130021</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2085,13 +2086,13 @@
         <v>130021</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2114,13 +2115,13 @@
         <v>130021</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2143,13 +2144,13 @@
         <v>130021</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2172,13 +2173,13 @@
         <v>140001</v>
       </c>
       <c r="F35" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I35" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2201,16 +2202,16 @@
         <v>110001</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H36">
         <v>150001</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2235,16 +2236,16 @@
         <v>110002</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="H37">
         <v>150002</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2269,16 +2270,16 @@
         <v>110003</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H38">
         <v>150003</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2303,16 +2304,16 @@
         <v>110004</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H39">
         <v>150004</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2337,16 +2338,16 @@
         <v>110005</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="H40">
         <v>150005</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2371,16 +2372,16 @@
         <v>110006</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="H41">
         <v>150006</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2405,16 +2406,16 @@
         <v>110007</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="H42">
         <v>150007</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2439,16 +2440,16 @@
         <v>110008</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="H43">
         <v>150008</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2473,16 +2474,16 @@
         <v>110009</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H44">
         <v>150009</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2507,16 +2508,16 @@
         <v>110010</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="H45">
         <v>150010</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2541,16 +2542,16 @@
         <v>110011</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H46">
         <v>150011</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2575,16 +2576,16 @@
         <v>110012</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="H47">
         <v>150012</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2609,16 +2610,16 @@
         <v>110013</v>
       </c>
       <c r="F48" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="H48">
         <v>150013</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2643,16 +2644,16 @@
         <v>110014</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H49">
         <v>150014</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2677,7 +2678,7 @@
         <v>6001</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G50" s="1"/>
       <c r="I50" s="1"/>
@@ -2704,7 +2705,7 @@
         <v>6002</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G51" s="1"/>
       <c r="I51" s="1"/>
@@ -2731,7 +2732,7 @@
         <v>6003</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G52" s="1"/>
       <c r="I52" s="1"/>
@@ -2758,7 +2759,7 @@
         <v>6004</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G53" s="11"/>
       <c r="J53">
@@ -2784,7 +2785,7 @@
         <v>6005</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G54" s="11"/>
       <c r="J54">
@@ -2810,7 +2811,7 @@
         <v>150001</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G55" s="11"/>
       <c r="J55">
@@ -2836,7 +2837,7 @@
         <v>150002</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G56" s="11"/>
       <c r="J56">
@@ -2862,7 +2863,7 @@
         <v>150003</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G57" s="11"/>
       <c r="J57">
@@ -2888,7 +2889,7 @@
         <v>150004</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G58" s="11"/>
       <c r="J58">
@@ -2914,7 +2915,7 @@
         <v>150005</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G59" s="11"/>
       <c r="J59">
@@ -2940,7 +2941,7 @@
         <v>150006</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60" s="11"/>
       <c r="J60">
@@ -2966,7 +2967,7 @@
         <v>150007</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G61" s="11"/>
       <c r="J61">
@@ -2992,7 +2993,7 @@
         <v>150008</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G62" s="11"/>
       <c r="J62">
@@ -3018,7 +3019,7 @@
         <v>150009</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63" s="11"/>
       <c r="J63">
@@ -3044,7 +3045,7 @@
         <v>150010</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G64" s="11"/>
       <c r="J64">
@@ -3070,7 +3071,7 @@
         <v>150011</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G65" s="11"/>
       <c r="J65">
@@ -3096,7 +3097,7 @@
         <v>150012</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G66" s="11"/>
       <c r="J66">
@@ -3122,7 +3123,7 @@
         <v>150013</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G67" s="11"/>
       <c r="J67">
@@ -3148,7 +3149,7 @@
         <v>150014</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G68" s="11"/>
       <c r="J68">
@@ -3174,10 +3175,10 @@
         <v>2006</v>
       </c>
       <c r="F69" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3202,10 +3203,10 @@
         <v>5003</v>
       </c>
       <c r="F70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3230,10 +3231,10 @@
         <v>5004</v>
       </c>
       <c r="F71" t="s">
+        <v>92</v>
+      </c>
+      <c r="G71" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3910,10 +3911,10 @@
         <v>703</v>
       </c>
       <c r="F162" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3939,7 +3940,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3951,54 +3952,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4023,11 +4024,11 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="20"/>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4035,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4043,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4051,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4059,7 +4060,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4067,7 +4068,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4075,7 +4076,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4083,7 +4084,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4091,7 +4092,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4099,7 +4100,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4107,7 +4108,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4115,7 +4116,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4123,25 +4124,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4149,7 +4150,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -4157,22 +4158,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -4180,7 +4181,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -4188,22 +4189,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
